--- a/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="21075" windowHeight="9675"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="21075" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia Workbook" sheetId="1" r:id="rId1"/>
-    <sheet name="SA Indices Comparison" sheetId="7" r:id="rId2"/>
-    <sheet name="Employment calcs" sheetId="2" r:id="rId3"/>
-    <sheet name="Exergy calcs" sheetId="8" r:id="rId4"/>
+    <sheet name="SAData" sheetId="9" r:id="rId2"/>
+    <sheet name="SA Indices Comparison" sheetId="7" r:id="rId3"/>
+    <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
+    <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>Notes</t>
   </si>
@@ -806,17 +807,39 @@
   <si>
     <t xml:space="preserve"> - Total population from 1991-2011 is from the World Bank's World Development Indicators database. </t>
   </si>
+  <si>
+    <t xml:space="preserve"> - The 'SAData' tab has the indexed data from this page formatted for direct exporting into R (a statistical analysis program).</t>
+  </si>
+  <si>
+    <t>iYear</t>
+  </si>
+  <si>
+    <t>iGDP</t>
+  </si>
+  <si>
+    <t>iLabor</t>
+  </si>
+  <si>
+    <t>iCapStk</t>
+  </si>
+  <si>
+    <t>iQ</t>
+  </si>
+  <si>
+    <t>iX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2200,7 +2223,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2397,13 +2420,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2439,6 +2462,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="490">
@@ -2991,7 +3024,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3063,7 +3096,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$G$10:$G$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$H$12:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3153,7 +3186,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3225,7 +3258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$I$10:$I$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$J$12:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3315,7 +3348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3387,7 +3420,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$H$10:$H$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$I$12:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3479,7 +3512,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3551,7 +3584,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$K$10:$K$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$L$12:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3647,7 +3680,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$A$10:$A$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$A$12:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3719,7 +3752,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Saudi Arabia Workbook'!$J$10:$J$30</c:f>
+              <c:f>'Saudi Arabia Workbook'!$K$12:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3799,11 +3832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119876992"/>
-        <c:axId val="193583360"/>
+        <c:axId val="96097024"/>
+        <c:axId val="96105984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119876992"/>
+        <c:axId val="96097024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3854,12 +3887,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193583360"/>
+        <c:crossAx val="96105984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193583360"/>
+        <c:axId val="96105984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +3938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119876992"/>
+        <c:crossAx val="96097024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4700,10 +4733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4713,17 +4746,18 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="77" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="84" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="83" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="83" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1">
+    <row r="1" spans="1:15" s="7" customFormat="1">
       <c r="A1" s="86" t="s">
         <v>8</v>
       </c>
@@ -4731,9 +4765,10 @@
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
       <c r="E1" s="79"/>
-      <c r="J1" s="84"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="G1" s="83"/>
+      <c r="K1" s="83"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4743,12 +4778,12 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -4756,12 +4791,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -4769,12 +4804,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>39</v>
@@ -4782,12 +4817,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="78" t="s">
         <v>93</v>
@@ -4796,946 +4831,1661 @@
       <c r="D6" s="5"/>
       <c r="E6" s="78"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="85" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" s="83" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:15" s="83" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B8" s="78"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:15" ht="12.75" customHeight="1">
+      <c r="G9" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
+      <c r="A10" s="80"/>
+      <c r="B10" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C10" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D10" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E10" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F10" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="I10" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="J10" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="K10" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="L10" s="85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A9" s="81" t="s">
+    <row r="11" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
         <v>1991</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B12" s="97">
         <v>218664</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C12" s="98">
         <v>4845900.3947999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D12" s="97">
         <v>345671</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E12" s="78">
         <v>3917281.8361268877</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F12" s="98">
         <v>4133205.565771067</v>
       </c>
-      <c r="G10" s="23">
-        <f>B10/$B$10</f>
+      <c r="G12" s="98">
+        <f>A12-$A$12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f>B12/$B$12</f>
         <v>1</v>
       </c>
-      <c r="H10" s="21">
-        <f>C10/$C$10</f>
+      <c r="I12" s="21">
+        <f>C12/$C$12</f>
         <v>1</v>
       </c>
-      <c r="I10" s="21">
-        <f>D10/$D$10</f>
+      <c r="J12" s="21">
+        <f>D12/$D$12</f>
         <v>1</v>
       </c>
-      <c r="J10" s="83">
-        <f>E10/$E$10</f>
+      <c r="K12" s="82">
+        <f t="shared" ref="K12:K32" si="0">E12/$E$12</f>
         <v>1</v>
       </c>
-      <c r="K10" s="21">
-        <f>F10/$F$10</f>
+      <c r="L12" s="21">
+        <f>F12/$F$12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
         <v>1992</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B13" s="97">
         <v>228785</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C13" s="98">
         <v>5084528.3850000016</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D13" s="97">
         <v>366361</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E13" s="78">
         <v>4133974.759696444</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F13" s="98">
         <v>4361668.5944262277</v>
       </c>
-      <c r="G11" s="23">
-        <f t="shared" ref="G11:G30" si="0">B11/$B$10</f>
+      <c r="G13" s="98">
+        <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" ref="H13:H32" si="2">B13/$B$12</f>
         <v>1.0462856254344566</v>
       </c>
-      <c r="H11" s="21">
-        <f t="shared" ref="H11:H30" si="1">C11/$C$10</f>
+      <c r="I13" s="21">
+        <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
         <v>1.049243271788266</v>
       </c>
-      <c r="I11" s="21">
-        <f t="shared" ref="I11:I30" si="2">D11/$D$10</f>
+      <c r="J13" s="21">
+        <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
         <v>1.0598546016298735</v>
       </c>
-      <c r="J11" s="83">
-        <f>E11/$E$10</f>
+      <c r="K13" s="82">
+        <f t="shared" si="0"/>
         <v>1.0553171644611117</v>
       </c>
-      <c r="K11" s="21">
-        <f t="shared" ref="K11:K30" si="3">F11/$F$10</f>
+      <c r="L13" s="21">
+        <f t="shared" ref="L13:L32" si="5">F13/$F$12</f>
         <v>1.0552750220185432</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>1993</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B14" s="97">
         <v>228844</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C14" s="98">
         <v>5229661.1760000009</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D14" s="97">
         <v>385944</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E14" s="78">
         <v>4302612.0660633752</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F14" s="98">
         <v>4539252.4091469599</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G14" s="98">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0465554457981194</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="3"/>
+        <v>1.0791928743751737</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="4"/>
+        <v>1.116506736173992</v>
+      </c>
+      <c r="K14" s="82">
         <f t="shared" si="0"/>
-        <v>1.0465554457981194</v>
-      </c>
-      <c r="H12" s="21">
+        <v>1.0983667364402538</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="5"/>
+        <v>1.0982401762783225</v>
+      </c>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B15" s="97">
+        <v>230368</v>
+      </c>
+      <c r="C15" s="98">
+        <v>5359295.230200001</v>
+      </c>
+      <c r="D15" s="97">
+        <v>404527</v>
+      </c>
+      <c r="E15" s="78">
+        <v>4433045.1617870182</v>
+      </c>
+      <c r="F15" s="98">
+        <v>4676061.4556019614</v>
+      </c>
+      <c r="G15" s="98">
         <f t="shared" si="1"/>
-        <v>1.0791928743751737</v>
-      </c>
-      <c r="I12" s="21">
+        <v>3</v>
+      </c>
+      <c r="H15" s="23">
         <f t="shared" si="2"/>
-        <v>1.116506736173992</v>
-      </c>
-      <c r="J12" s="83">
-        <f>E12/$E$10</f>
-        <v>1.0983667364402538</v>
-      </c>
-      <c r="K12" s="21">
+        <v>1.0535250429883292</v>
+      </c>
+      <c r="I15" s="21">
         <f t="shared" si="3"/>
-        <v>1.0982401762783225</v>
-      </c>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B13" s="9">
-        <v>230368</v>
-      </c>
-      <c r="C13" s="22">
-        <v>5359295.230200001</v>
-      </c>
-      <c r="D13" s="9">
-        <v>404527</v>
-      </c>
-      <c r="E13" s="78">
-        <v>4433045.1617870182</v>
-      </c>
-      <c r="F13" s="82">
-        <v>4676061.4556019614</v>
-      </c>
-      <c r="G13" s="23">
+        <v>1.1059441576535314</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="4"/>
+        <v>1.1702659465214034</v>
+      </c>
+      <c r="K15" s="82">
         <f t="shared" si="0"/>
-        <v>1.0535250429883292</v>
-      </c>
-      <c r="H13" s="21">
+        <v>1.1316635736809988</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="5"/>
+        <v>1.1313401623007886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B16" s="97">
+        <v>230830</v>
+      </c>
+      <c r="C16" s="98">
+        <v>5455094.2750000004</v>
+      </c>
+      <c r="D16" s="97">
+        <v>421302</v>
+      </c>
+      <c r="E16" s="78">
+        <v>4374793.0338625452</v>
+      </c>
+      <c r="F16" s="98">
+        <v>4612490.6070032222</v>
+      </c>
+      <c r="G16" s="98">
         <f t="shared" si="1"/>
-        <v>1.1059441576535314</v>
-      </c>
-      <c r="I13" s="21">
+        <v>4</v>
+      </c>
+      <c r="H16" s="23">
         <f t="shared" si="2"/>
-        <v>1.1702659465214034</v>
-      </c>
-      <c r="J13" s="83">
-        <f>E13/$E$10</f>
-        <v>1.1316635736809988</v>
-      </c>
-      <c r="K13" s="21">
+        <v>1.0556378736326053</v>
+      </c>
+      <c r="I16" s="21">
         <f t="shared" si="3"/>
-        <v>1.1313401623007886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B14" s="9">
-        <v>230830</v>
-      </c>
-      <c r="C14" s="22">
-        <v>5455094.2750000004</v>
-      </c>
-      <c r="D14" s="9">
-        <v>421302</v>
-      </c>
-      <c r="E14" s="78">
-        <v>4374793.0338625452</v>
-      </c>
-      <c r="F14" s="82">
-        <v>4612490.6070032222</v>
-      </c>
-      <c r="G14" s="23">
+        <v>1.1257132484303041</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="4"/>
+        <v>1.2187947499211678</v>
+      </c>
+      <c r="K16" s="82">
         <f t="shared" si="0"/>
-        <v>1.0556378736326053</v>
-      </c>
-      <c r="H14" s="21">
+        <v>1.1167930255914418</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="5"/>
+        <v>1.1159596428499299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B17" s="97">
+        <v>238641</v>
+      </c>
+      <c r="C17" s="98">
+        <v>5431167.6096999999</v>
+      </c>
+      <c r="D17" s="97">
+        <v>433560</v>
+      </c>
+      <c r="E17" s="78">
+        <v>4679007.7021160554</v>
+      </c>
+      <c r="F17" s="98">
+        <v>4934751.8633057633</v>
+      </c>
+      <c r="G17" s="98">
         <f t="shared" si="1"/>
-        <v>1.1257132484303041</v>
-      </c>
-      <c r="I14" s="21">
+        <v>5</v>
+      </c>
+      <c r="H17" s="23">
         <f t="shared" si="2"/>
-        <v>1.2187947499211678</v>
-      </c>
-      <c r="J14" s="83">
-        <f>E14/$E$10</f>
-        <v>1.1167930255914418</v>
-      </c>
-      <c r="K14" s="21">
+        <v>1.091359345845681</v>
+      </c>
+      <c r="I17" s="21">
         <f t="shared" si="3"/>
-        <v>1.1159596428499299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B15" s="9">
-        <v>238641</v>
-      </c>
-      <c r="C15" s="22">
-        <v>5431167.6096999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>433560</v>
-      </c>
-      <c r="E15" s="78">
-        <v>4679007.7021160554</v>
-      </c>
-      <c r="F15" s="82">
-        <v>4934751.8633057633</v>
-      </c>
-      <c r="G15" s="23">
+        <v>1.1207757418060087</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="4"/>
+        <v>1.2542562147244056</v>
+      </c>
+      <c r="K17" s="82">
         <f t="shared" si="0"/>
-        <v>1.091359345845681</v>
-      </c>
-      <c r="H15" s="21">
+        <v>1.1944526582091179</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="5"/>
+        <v>1.1939284859607906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B18" s="97">
+        <v>244828</v>
+      </c>
+      <c r="C18" s="98">
+        <v>5274423.1947000008</v>
+      </c>
+      <c r="D18" s="97">
+        <v>445496</v>
+      </c>
+      <c r="E18" s="78">
+        <v>4952273.2913171388</v>
+      </c>
+      <c r="F18" s="98">
+        <v>5223703.0397533849</v>
+      </c>
+      <c r="G18" s="98">
         <f t="shared" si="1"/>
-        <v>1.1207757418060087</v>
-      </c>
-      <c r="I15" s="21">
+        <v>6</v>
+      </c>
+      <c r="H18" s="23">
         <f t="shared" si="2"/>
-        <v>1.2542562147244056</v>
-      </c>
-      <c r="J15" s="83">
-        <f>E15/$E$10</f>
-        <v>1.1944526582091179</v>
-      </c>
-      <c r="K15" s="21">
+        <v>1.1196538982182709</v>
+      </c>
+      <c r="I18" s="21">
         <f t="shared" si="3"/>
-        <v>1.1939284859607906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B16" s="9">
-        <v>244828</v>
-      </c>
-      <c r="C16" s="22">
-        <v>5274423.1947000008</v>
-      </c>
-      <c r="D16" s="9">
-        <v>445496</v>
-      </c>
-      <c r="E16" s="78">
-        <v>4952273.2913171388</v>
-      </c>
-      <c r="F16" s="82">
-        <v>5223703.0397533849</v>
-      </c>
-      <c r="G16" s="23">
+        <v>1.0884299645035702</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="4"/>
+        <v>1.2887861579363036</v>
+      </c>
+      <c r="K18" s="82">
         <f t="shared" si="0"/>
-        <v>1.1196538982182709</v>
-      </c>
-      <c r="H16" s="21">
+        <v>1.2642116392150053</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="5"/>
+        <v>1.2638381896640267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B19" s="97">
+        <v>251768</v>
+      </c>
+      <c r="C19" s="98">
+        <v>5314835.1240000008</v>
+      </c>
+      <c r="D19" s="97">
+        <v>459351</v>
+      </c>
+      <c r="E19" s="78">
+        <v>5137254.0890095392</v>
+      </c>
+      <c r="F19" s="98">
+        <v>5419984.8204600709</v>
+      </c>
+      <c r="G19" s="98">
         <f t="shared" si="1"/>
-        <v>1.0884299645035702</v>
-      </c>
-      <c r="I16" s="21">
+        <v>7</v>
+      </c>
+      <c r="H19" s="23">
         <f t="shared" si="2"/>
-        <v>1.2887861579363036</v>
-      </c>
-      <c r="J16" s="83">
-        <f>E16/$E$10</f>
-        <v>1.2642116392150053</v>
-      </c>
-      <c r="K16" s="21">
+        <v>1.1513920901474408</v>
+      </c>
+      <c r="I19" s="21">
         <f t="shared" si="3"/>
-        <v>1.2638381896640267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B17" s="9">
-        <v>251768</v>
-      </c>
-      <c r="C17" s="22">
-        <v>5314835.1240000008</v>
-      </c>
-      <c r="D17" s="9">
-        <v>459351</v>
-      </c>
-      <c r="E17" s="78">
-        <v>5137254.0890095392</v>
-      </c>
-      <c r="F17" s="82">
-        <v>5419984.8204600709</v>
-      </c>
-      <c r="G17" s="23">
+        <v>1.0967693701882939</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="4"/>
+        <v>1.3288676226816829</v>
+      </c>
+      <c r="K19" s="82">
         <f t="shared" si="0"/>
-        <v>1.1513920901474408</v>
-      </c>
-      <c r="H17" s="21">
+        <v>1.3114333621930221</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3113271852107722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="97">
+        <v>249884</v>
+      </c>
+      <c r="C20" s="98">
+        <v>5493845.7938000001</v>
+      </c>
+      <c r="D20" s="97">
+        <v>476129</v>
+      </c>
+      <c r="E20" s="78">
+        <v>5205044.4034393225</v>
+      </c>
+      <c r="F20" s="98">
+        <v>5492389.3832810484</v>
+      </c>
+      <c r="G20" s="98">
         <f t="shared" si="1"/>
-        <v>1.0967693701882939</v>
-      </c>
-      <c r="I17" s="21">
+        <v>8</v>
+      </c>
+      <c r="H20" s="23">
         <f t="shared" si="2"/>
-        <v>1.3288676226816829</v>
-      </c>
-      <c r="J17" s="83">
-        <f>E17/$E$10</f>
-        <v>1.3114333621930221</v>
-      </c>
-      <c r="K17" s="21">
+        <v>1.1427761314162368</v>
+      </c>
+      <c r="I20" s="21">
         <f t="shared" si="3"/>
-        <v>1.3113271852107722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B18" s="9">
-        <v>249884</v>
-      </c>
-      <c r="C18" s="22">
-        <v>5493845.7938000001</v>
-      </c>
-      <c r="D18" s="9">
-        <v>476129</v>
-      </c>
-      <c r="E18" s="78">
-        <v>5205044.4034393225</v>
-      </c>
-      <c r="F18" s="82">
-        <v>5492389.3832810484</v>
-      </c>
-      <c r="G18" s="23">
+        <v>1.1337100118061223</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="4"/>
+        <v>1.3774051048540374</v>
+      </c>
+      <c r="K20" s="82">
         <f t="shared" si="0"/>
-        <v>1.1427761314162368</v>
-      </c>
-      <c r="H18" s="21">
+        <v>1.3287388095071753</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3288449596521386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="97">
+        <v>262040</v>
+      </c>
+      <c r="C21" s="98">
+        <v>5624704.4455999993</v>
+      </c>
+      <c r="D21" s="97">
+        <v>494071</v>
+      </c>
+      <c r="E21" s="78">
+        <v>5478531.3505860101</v>
+      </c>
+      <c r="F21" s="98">
+        <v>5780347.8931526784</v>
+      </c>
+      <c r="G21" s="98">
         <f t="shared" si="1"/>
-        <v>1.1337100118061223</v>
-      </c>
-      <c r="I18" s="21">
+        <v>9</v>
+      </c>
+      <c r="H21" s="23">
         <f t="shared" si="2"/>
-        <v>1.3774051048540374</v>
-      </c>
-      <c r="J18" s="83">
-        <f>E18/$E$10</f>
-        <v>1.3287388095071753</v>
-      </c>
-      <c r="K18" s="21">
+        <v>1.1983682727838145</v>
+      </c>
+      <c r="I21" s="21">
         <f t="shared" si="3"/>
-        <v>1.3288449596521386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="9">
-        <v>262040</v>
-      </c>
-      <c r="C19" s="22">
-        <v>5624704.4455999993</v>
-      </c>
-      <c r="D19" s="9">
-        <v>494071</v>
-      </c>
-      <c r="E19" s="78">
-        <v>5478531.3505860101</v>
-      </c>
-      <c r="F19" s="82">
-        <v>5780347.8931526784</v>
-      </c>
-      <c r="G19" s="23">
+        <v>1.1607140030438332</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="4"/>
+        <v>1.4293099507913594</v>
+      </c>
+      <c r="K21" s="82">
         <f t="shared" si="0"/>
-        <v>1.1983682727838145</v>
-      </c>
-      <c r="H19" s="21">
+        <v>1.3985542985599342</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="5"/>
+        <v>1.3985144946630135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="97">
+        <v>263474</v>
+      </c>
+      <c r="C22" s="98">
+        <v>5898385.4752000002</v>
+      </c>
+      <c r="D22" s="97">
+        <v>511560</v>
+      </c>
+      <c r="E22" s="78">
+        <v>5789242.3038854823</v>
+      </c>
+      <c r="F22" s="98">
+        <v>6107032.9134801663</v>
+      </c>
+      <c r="G22" s="98">
         <f t="shared" si="1"/>
-        <v>1.1607140030438332</v>
-      </c>
-      <c r="I19" s="21">
+        <v>10</v>
+      </c>
+      <c r="H22" s="23">
         <f t="shared" si="2"/>
-        <v>1.4293099507913594</v>
-      </c>
-      <c r="J19" s="83">
-        <f>E19/$E$10</f>
-        <v>1.3985542985599342</v>
-      </c>
-      <c r="K19" s="21">
+        <v>1.2049262795887754</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="3"/>
-        <v>1.3985144946630135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B20" s="9">
-        <v>263474</v>
-      </c>
-      <c r="C20" s="22">
-        <v>5898385.4752000002</v>
-      </c>
-      <c r="D20" s="9">
-        <v>511560</v>
-      </c>
-      <c r="E20" s="78">
-        <v>5789242.3038854823</v>
-      </c>
-      <c r="F20" s="82">
-        <v>6107032.9134801663</v>
-      </c>
-      <c r="G20" s="23">
+        <v>1.2171908200031087</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="4"/>
+        <v>1.4799043020675728</v>
+      </c>
+      <c r="K22" s="82">
         <f t="shared" si="0"/>
-        <v>1.2049262795887754</v>
-      </c>
-      <c r="H20" s="21">
+        <v>1.4778722966763729</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="5"/>
+        <v>1.4775536363483226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="97">
+        <v>263811</v>
+      </c>
+      <c r="C23" s="98">
+        <v>6219998.2655999996</v>
+      </c>
+      <c r="D23" s="97">
+        <v>528535</v>
+      </c>
+      <c r="E23" s="78">
+        <v>6068040.6992716994</v>
+      </c>
+      <c r="F23" s="98">
+        <v>6400299.6919657225</v>
+      </c>
+      <c r="G23" s="98">
         <f t="shared" si="1"/>
-        <v>1.2171908200031087</v>
-      </c>
-      <c r="I20" s="21">
+        <v>11</v>
+      </c>
+      <c r="H23" s="23">
         <f t="shared" si="2"/>
-        <v>1.4799043020675728</v>
-      </c>
-      <c r="J20" s="83">
-        <f>E20/$E$10</f>
-        <v>1.4778722966763729</v>
-      </c>
-      <c r="K20" s="21">
+        <v>1.2064674569202063</v>
+      </c>
+      <c r="I23" s="21">
         <f t="shared" si="3"/>
-        <v>1.4775536363483226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B21" s="9">
-        <v>263811</v>
-      </c>
-      <c r="C21" s="22">
-        <v>6219998.2655999996</v>
-      </c>
-      <c r="D21" s="9">
-        <v>528535</v>
-      </c>
-      <c r="E21" s="78">
-        <v>6068040.6992716994</v>
-      </c>
-      <c r="F21" s="82">
-        <v>6400299.6919657225</v>
-      </c>
-      <c r="G21" s="23">
+        <v>1.283558835066958</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="4"/>
+        <v>1.5290116903066788</v>
+      </c>
+      <c r="K23" s="82">
         <f t="shared" si="0"/>
-        <v>1.2064674569202063</v>
-      </c>
-      <c r="H21" s="21">
+        <v>1.5490436872092204</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="5"/>
+        <v>1.5485074695944185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="97">
+        <v>284017</v>
+      </c>
+      <c r="C24" s="98">
+        <v>6823150.3405000009</v>
+      </c>
+      <c r="D24" s="97">
+        <v>553069</v>
+      </c>
+      <c r="E24" s="78">
+        <v>6426960.5938080102</v>
+      </c>
+      <c r="F24" s="98">
+        <v>6777370.6051429501</v>
+      </c>
+      <c r="G24" s="98">
         <f t="shared" si="1"/>
-        <v>1.283558835066958</v>
-      </c>
-      <c r="I21" s="21">
+        <v>12</v>
+      </c>
+      <c r="H24" s="23">
         <f t="shared" si="2"/>
-        <v>1.5290116903066788</v>
-      </c>
-      <c r="J21" s="83">
-        <f>E21/$E$10</f>
-        <v>1.5490436872092204</v>
-      </c>
-      <c r="K21" s="21">
+        <v>1.29887407163502</v>
+      </c>
+      <c r="I24" s="21">
         <f t="shared" si="3"/>
-        <v>1.5485074695944185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B22" s="9">
-        <v>284017</v>
-      </c>
-      <c r="C22" s="22">
-        <v>6823150.3405000009</v>
-      </c>
-      <c r="D22" s="9">
-        <v>553069</v>
-      </c>
-      <c r="E22" s="78">
-        <v>6426960.5938080102</v>
-      </c>
-      <c r="F22" s="82">
-        <v>6777370.6051429501</v>
-      </c>
-      <c r="G22" s="23">
+        <v>1.4080252965623752</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="4"/>
+        <v>1.5999866925486952</v>
+      </c>
+      <c r="K24" s="82">
         <f t="shared" si="0"/>
-        <v>1.29887407163502</v>
-      </c>
-      <c r="H22" s="21">
+        <v>1.6406684182219839</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="5"/>
+        <v>1.6397371234737033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="97">
+        <v>298976</v>
+      </c>
+      <c r="C25" s="98">
+        <v>7354121.3855999997</v>
+      </c>
+      <c r="D25" s="97">
+        <v>577441</v>
+      </c>
+      <c r="E25" s="78">
+        <v>6899720.7862286186</v>
+      </c>
+      <c r="F25" s="98">
+        <v>7274109.2889644466</v>
+      </c>
+      <c r="G25" s="98">
         <f t="shared" si="1"/>
-        <v>1.4080252965623752</v>
-      </c>
-      <c r="I22" s="21">
+        <v>13</v>
+      </c>
+      <c r="H25" s="23">
         <f t="shared" si="2"/>
-        <v>1.5999866925486952</v>
-      </c>
-      <c r="J22" s="83">
-        <f>E22/$E$10</f>
-        <v>1.6406684182219839</v>
-      </c>
-      <c r="K22" s="21">
+        <v>1.3672849668898401</v>
+      </c>
+      <c r="I25" s="21">
         <f t="shared" si="3"/>
-        <v>1.6397371234737033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B23" s="9">
-        <v>298976</v>
-      </c>
-      <c r="C23" s="22">
-        <v>7354121.3855999997</v>
-      </c>
-      <c r="D23" s="9">
-        <v>577441</v>
-      </c>
-      <c r="E23" s="78">
-        <v>6899720.7862286186</v>
-      </c>
-      <c r="F23" s="82">
-        <v>7274109.2889644466</v>
-      </c>
-      <c r="G23" s="23">
+        <v>1.5175964808297548</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="4"/>
+        <v>1.6704930410708447</v>
+      </c>
+      <c r="K25" s="82">
         <f t="shared" si="0"/>
-        <v>1.3672849668898401</v>
-      </c>
-      <c r="H23" s="21">
+        <v>1.7613541927456875</v>
+      </c>
+      <c r="L25" s="21">
+        <f t="shared" si="5"/>
+        <v>1.7599195523214755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="97">
+        <v>315580</v>
+      </c>
+      <c r="C26" s="98">
+        <v>7616225.5487999991</v>
+      </c>
+      <c r="D26" s="97">
+        <v>611807</v>
+      </c>
+      <c r="E26" s="78">
+        <v>7298758.4809211511</v>
+      </c>
+      <c r="F26" s="98">
+        <v>7693447.8334625401</v>
+      </c>
+      <c r="G26" s="98">
         <f t="shared" si="1"/>
-        <v>1.5175964808297548</v>
-      </c>
-      <c r="I23" s="21">
+        <v>14</v>
+      </c>
+      <c r="H26" s="23">
         <f t="shared" si="2"/>
-        <v>1.6704930410708447</v>
-      </c>
-      <c r="J23" s="83">
-        <f>E23/$E$10</f>
-        <v>1.7613541927456875</v>
-      </c>
-      <c r="K23" s="21">
+        <v>1.4432188197417042</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" si="3"/>
-        <v>1.7599195523214755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B24" s="9">
-        <v>315580</v>
-      </c>
-      <c r="C24" s="22">
-        <v>7616225.5487999991</v>
-      </c>
-      <c r="D24" s="9">
-        <v>611807</v>
-      </c>
-      <c r="E24" s="78">
-        <v>7298758.4809211511</v>
-      </c>
-      <c r="F24" s="82">
-        <v>7693447.8334625401</v>
-      </c>
-      <c r="G24" s="23">
+        <v>1.5716842956517962</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="4"/>
+        <v>1.769911274014887</v>
+      </c>
+      <c r="K26" s="82">
         <f t="shared" si="0"/>
-        <v>1.4432188197417042</v>
-      </c>
-      <c r="H24" s="21">
+        <v>1.8632201578167815</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="5"/>
+        <v>1.8613755621485268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="97">
+        <v>325545</v>
+      </c>
+      <c r="C27" s="98">
+        <v>7975498.6175999986</v>
+      </c>
+      <c r="D27" s="97">
+        <v>656444</v>
+      </c>
+      <c r="E27" s="78">
+        <v>7516132.4837130783</v>
+      </c>
+      <c r="F27" s="98">
+        <v>7921562.5873833317</v>
+      </c>
+      <c r="G27" s="98">
         <f t="shared" si="1"/>
-        <v>1.5716842956517962</v>
-      </c>
-      <c r="I24" s="21">
+        <v>15</v>
+      </c>
+      <c r="H27" s="23">
         <f t="shared" si="2"/>
-        <v>1.769911274014887</v>
-      </c>
-      <c r="J24" s="83">
-        <f>E24/$E$10</f>
-        <v>1.8632201578167815</v>
-      </c>
-      <c r="K24" s="21">
+        <v>1.4887910218417297</v>
+      </c>
+      <c r="I27" s="21">
         <f t="shared" si="3"/>
-        <v>1.8613755621485268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B25" s="9">
-        <v>325545</v>
-      </c>
-      <c r="C25" s="22">
-        <v>7975498.6175999986</v>
-      </c>
-      <c r="D25" s="9">
-        <v>656444</v>
-      </c>
-      <c r="E25" s="78">
-        <v>7516132.4837130783</v>
-      </c>
-      <c r="F25" s="82">
-        <v>7921562.5873833317</v>
-      </c>
-      <c r="G25" s="23">
+        <v>1.6458238857237517</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="4"/>
+        <v>1.8990427313833096</v>
+      </c>
+      <c r="K27" s="82">
         <f t="shared" si="0"/>
-        <v>1.4887910218417297</v>
-      </c>
-      <c r="H25" s="21">
+        <v>1.9187111875372393</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" si="5"/>
+        <v>1.9165663215460058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="97">
+        <v>332112</v>
+      </c>
+      <c r="C28" s="98">
+        <v>8324563.0463999994</v>
+      </c>
+      <c r="D28" s="97">
+        <v>713978</v>
+      </c>
+      <c r="E28" s="78">
+        <v>7839172.0619319426</v>
+      </c>
+      <c r="F28" s="98">
+        <v>8264733.6473351698</v>
+      </c>
+      <c r="G28" s="98">
         <f t="shared" si="1"/>
-        <v>1.6458238857237517</v>
-      </c>
-      <c r="I25" s="21">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23">
         <f t="shared" si="2"/>
-        <v>1.8990427313833096</v>
-      </c>
-      <c r="J25" s="83">
-        <f>E25/$E$10</f>
-        <v>1.9187111875372393</v>
-      </c>
-      <c r="K25" s="21">
+        <v>1.5188234002853693</v>
+      </c>
+      <c r="I28" s="21">
         <f t="shared" si="3"/>
-        <v>1.9165663215460058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B26" s="9">
-        <v>332112</v>
-      </c>
-      <c r="C26" s="22">
-        <v>8324563.0463999994</v>
-      </c>
-      <c r="D26" s="9">
-        <v>713978</v>
-      </c>
-      <c r="E26" s="78">
-        <v>7839172.0619319426</v>
-      </c>
-      <c r="F26" s="82">
-        <v>8264733.6473351698</v>
-      </c>
-      <c r="G26" s="23">
+        <v>1.717856820856833</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="4"/>
+        <v>2.065484232116666</v>
+      </c>
+      <c r="K28" s="82">
         <f t="shared" si="0"/>
-        <v>1.5188234002853693</v>
-      </c>
-      <c r="H26" s="21">
+        <v>2.0011764253558848</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="5"/>
+        <v>1.9995941445010972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="97">
+        <v>346156</v>
+      </c>
+      <c r="C29" s="98">
+        <v>8666390.8368000016</v>
+      </c>
+      <c r="D29" s="97">
+        <v>789160</v>
+      </c>
+      <c r="E29" s="78">
+        <v>8362122.0692953076</v>
+      </c>
+      <c r="F29" s="98">
+        <v>8815931.8484738506</v>
+      </c>
+      <c r="G29" s="98">
         <f t="shared" si="1"/>
-        <v>1.717856820856833</v>
-      </c>
-      <c r="I26" s="21">
+        <v>17</v>
+      </c>
+      <c r="H29" s="23">
         <f t="shared" si="2"/>
-        <v>2.065484232116666</v>
-      </c>
-      <c r="J26" s="83">
-        <f>E26/$E$10</f>
-        <v>2.0011764253558848</v>
-      </c>
-      <c r="K26" s="21">
+        <v>1.5830497932901622</v>
+      </c>
+      <c r="I29" s="21">
         <f t="shared" si="3"/>
-        <v>1.9995941445010972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B27" s="9">
-        <v>346156</v>
-      </c>
-      <c r="C27" s="22">
-        <v>8666390.8368000016</v>
-      </c>
-      <c r="D27" s="9">
-        <v>789160</v>
-      </c>
-      <c r="E27" s="78">
-        <v>8362122.0692953076</v>
-      </c>
-      <c r="F27" s="82">
-        <v>8815931.8484738506</v>
-      </c>
-      <c r="G27" s="23">
+        <v>1.7883964032978603</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="4"/>
+        <v>2.2829800590735121</v>
+      </c>
+      <c r="K29" s="82">
         <f t="shared" si="0"/>
-        <v>1.5830497932901622</v>
-      </c>
-      <c r="H27" s="21">
+        <v>2.1346746083409567</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="5"/>
+        <v>2.1329526703153951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="97">
+        <v>346703</v>
+      </c>
+      <c r="C30" s="98">
+        <v>8694192.7514999993</v>
+      </c>
+      <c r="D30" s="97">
+        <v>835924</v>
+      </c>
+      <c r="E30" s="78">
+        <v>8252596.0023773126</v>
+      </c>
+      <c r="F30" s="98">
+        <v>8700713.72889743</v>
+      </c>
+      <c r="G30" s="98">
         <f t="shared" si="1"/>
-        <v>1.7883964032978603</v>
-      </c>
-      <c r="I27" s="21">
+        <v>18</v>
+      </c>
+      <c r="H30" s="23">
         <f t="shared" si="2"/>
-        <v>2.2829800590735121</v>
-      </c>
-      <c r="J27" s="83">
-        <f>E27/$E$10</f>
-        <v>2.1346746083409567</v>
-      </c>
-      <c r="K27" s="21">
+        <v>1.585551348187173</v>
+      </c>
+      <c r="I30" s="21">
         <f t="shared" si="3"/>
-        <v>2.1329526703153951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B28" s="9">
-        <v>346703</v>
-      </c>
-      <c r="C28" s="22">
-        <v>8694192.7514999993</v>
-      </c>
-      <c r="D28" s="9">
-        <v>835924</v>
-      </c>
-      <c r="E28" s="78">
-        <v>8252596.0023773126</v>
-      </c>
-      <c r="F28" s="82">
-        <v>8700713.72889743</v>
-      </c>
-      <c r="G28" s="23">
+        <v>1.7941336063839641</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="4"/>
+        <v>2.4182647662083312</v>
+      </c>
+      <c r="K30" s="82">
         <f t="shared" si="0"/>
-        <v>1.585551348187173</v>
-      </c>
-      <c r="H28" s="21">
+        <v>2.1067148976283145</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="5"/>
+        <v>2.1050764571092109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="97">
+        <v>362769</v>
+      </c>
+      <c r="C31" s="98">
+        <v>9030420.2939999998</v>
+      </c>
+      <c r="D31" s="97">
+        <v>883087</v>
+      </c>
+      <c r="E31" s="78">
+        <v>7512739.1859144196</v>
+      </c>
+      <c r="F31" s="98">
+        <v>7892837.3827960426</v>
+      </c>
+      <c r="G31" s="98">
         <f t="shared" si="1"/>
-        <v>1.7941336063839641</v>
-      </c>
-      <c r="I28" s="21">
+        <v>19</v>
+      </c>
+      <c r="H31" s="23">
         <f t="shared" si="2"/>
-        <v>2.4182647662083312</v>
-      </c>
-      <c r="J28" s="83">
-        <f>E28/$E$10</f>
-        <v>2.1067148976283145</v>
-      </c>
-      <c r="K28" s="21">
+        <v>1.659024805180551</v>
+      </c>
+      <c r="I31" s="21">
         <f t="shared" si="3"/>
-        <v>2.1050764571092109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B29" s="9">
-        <v>362769</v>
-      </c>
-      <c r="C29" s="22">
-        <v>9030420.2939999998</v>
-      </c>
-      <c r="D29" s="9">
-        <v>883087</v>
-      </c>
-      <c r="E29" s="78">
-        <v>7512739.1859144196</v>
-      </c>
-      <c r="F29" s="82">
-        <v>7892837.3827960426</v>
-      </c>
-      <c r="G29" s="23">
+        <v>1.8635175216746698</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="4"/>
+        <v>2.5547037500976364</v>
+      </c>
+      <c r="K31" s="82">
         <f t="shared" si="0"/>
-        <v>1.659024805180551</v>
-      </c>
-      <c r="H29" s="21">
+        <v>1.9178449496864511</v>
+      </c>
+      <c r="L31" s="21">
+        <f t="shared" si="5"/>
+        <v>1.9096164604442074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="97">
+        <v>387307</v>
+      </c>
+      <c r="C32" s="98">
+        <v>9239155.9890000001</v>
+      </c>
+      <c r="D32" s="97">
+        <v>931387</v>
+      </c>
+      <c r="E32" s="78">
+        <v>10728802.206971245</v>
+      </c>
+      <c r="F32" s="98">
+        <v>11327401.087124238</v>
+      </c>
+      <c r="G32" s="98">
         <f t="shared" si="1"/>
-        <v>1.8635175216746698</v>
-      </c>
-      <c r="I29" s="21">
+        <v>20</v>
+      </c>
+      <c r="H32" s="23">
         <f t="shared" si="2"/>
-        <v>2.5547037500976364</v>
-      </c>
-      <c r="J29" s="83">
-        <f>E29/$E$10</f>
-        <v>1.9178449496864511</v>
-      </c>
-      <c r="K29" s="21">
+        <v>1.7712426371053305</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="3"/>
-        <v>1.9096164604442074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B30" s="9">
-        <v>387307</v>
-      </c>
-      <c r="C30" s="22">
-        <v>9239155.9890000001</v>
-      </c>
-      <c r="D30" s="9">
-        <v>931387</v>
-      </c>
-      <c r="E30" s="78">
-        <v>10728802.206971245</v>
-      </c>
-      <c r="F30" s="82">
-        <v>11327401.087124238</v>
-      </c>
-      <c r="G30" s="23">
+        <v>1.9065922194592113</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="4"/>
+        <v>2.6944319887985975</v>
+      </c>
+      <c r="K32" s="82">
         <f t="shared" si="0"/>
-        <v>1.7712426371053305</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" si="1"/>
-        <v>1.9065922194592113</v>
-      </c>
-      <c r="I30" s="21">
-        <f t="shared" si="2"/>
-        <v>2.6944319887985975</v>
-      </c>
-      <c r="J30" s="83">
-        <f>E30/$E$10</f>
         <v>2.7388384741750094</v>
       </c>
-      <c r="K30" s="21">
-        <f t="shared" si="3"/>
+      <c r="L32" s="21">
+        <f t="shared" si="5"/>
         <v>2.7405849786256793</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="33" spans="2:24">
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
+    <row r="33" spans="2:25">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="35" spans="2:25">
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!G9</f>
+        <v>iYear</v>
+      </c>
+      <c r="B1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!H9</f>
+        <v>iGDP</v>
+      </c>
+      <c r="C1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!I9</f>
+        <v>iLabor</v>
+      </c>
+      <c r="D1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!J9</f>
+        <v>iCapStk</v>
+      </c>
+      <c r="E1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!K9</f>
+        <v>iQ</v>
+      </c>
+      <c r="F1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!L9</f>
+        <v>iX</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="99">
+        <f>'Saudi Arabia Workbook'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="100">
+        <f>'Saudi Arabia Workbook'!H12</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="100">
+        <f>'Saudi Arabia Workbook'!I12</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="100">
+        <f>'Saudi Arabia Workbook'!J12</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="100">
+        <f>'Saudi Arabia Workbook'!K12</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="100">
+        <f>'Saudi Arabia Workbook'!L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="99">
+        <f>'Saudi Arabia Workbook'!G13</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="100">
+        <f>'Saudi Arabia Workbook'!H13</f>
+        <v>1.0462856254344566</v>
+      </c>
+      <c r="C3" s="100">
+        <f>'Saudi Arabia Workbook'!I13</f>
+        <v>1.049243271788266</v>
+      </c>
+      <c r="D3" s="100">
+        <f>'Saudi Arabia Workbook'!J13</f>
+        <v>1.0598546016298735</v>
+      </c>
+      <c r="E3" s="100">
+        <f>'Saudi Arabia Workbook'!K13</f>
+        <v>1.0553171644611117</v>
+      </c>
+      <c r="F3" s="100">
+        <f>'Saudi Arabia Workbook'!L13</f>
+        <v>1.0552750220185432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="99">
+        <f>'Saudi Arabia Workbook'!G14</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="100">
+        <f>'Saudi Arabia Workbook'!H14</f>
+        <v>1.0465554457981194</v>
+      </c>
+      <c r="C4" s="100">
+        <f>'Saudi Arabia Workbook'!I14</f>
+        <v>1.0791928743751737</v>
+      </c>
+      <c r="D4" s="100">
+        <f>'Saudi Arabia Workbook'!J14</f>
+        <v>1.116506736173992</v>
+      </c>
+      <c r="E4" s="100">
+        <f>'Saudi Arabia Workbook'!K14</f>
+        <v>1.0983667364402538</v>
+      </c>
+      <c r="F4" s="100">
+        <f>'Saudi Arabia Workbook'!L14</f>
+        <v>1.0982401762783225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="99">
+        <f>'Saudi Arabia Workbook'!G15</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="100">
+        <f>'Saudi Arabia Workbook'!H15</f>
+        <v>1.0535250429883292</v>
+      </c>
+      <c r="C5" s="100">
+        <f>'Saudi Arabia Workbook'!I15</f>
+        <v>1.1059441576535314</v>
+      </c>
+      <c r="D5" s="100">
+        <f>'Saudi Arabia Workbook'!J15</f>
+        <v>1.1702659465214034</v>
+      </c>
+      <c r="E5" s="100">
+        <f>'Saudi Arabia Workbook'!K15</f>
+        <v>1.1316635736809988</v>
+      </c>
+      <c r="F5" s="100">
+        <f>'Saudi Arabia Workbook'!L15</f>
+        <v>1.1313401623007886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="99">
+        <f>'Saudi Arabia Workbook'!G16</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="100">
+        <f>'Saudi Arabia Workbook'!H16</f>
+        <v>1.0556378736326053</v>
+      </c>
+      <c r="C6" s="100">
+        <f>'Saudi Arabia Workbook'!I16</f>
+        <v>1.1257132484303041</v>
+      </c>
+      <c r="D6" s="100">
+        <f>'Saudi Arabia Workbook'!J16</f>
+        <v>1.2187947499211678</v>
+      </c>
+      <c r="E6" s="100">
+        <f>'Saudi Arabia Workbook'!K16</f>
+        <v>1.1167930255914418</v>
+      </c>
+      <c r="F6" s="100">
+        <f>'Saudi Arabia Workbook'!L16</f>
+        <v>1.1159596428499299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="99">
+        <f>'Saudi Arabia Workbook'!G17</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="100">
+        <f>'Saudi Arabia Workbook'!H17</f>
+        <v>1.091359345845681</v>
+      </c>
+      <c r="C7" s="100">
+        <f>'Saudi Arabia Workbook'!I17</f>
+        <v>1.1207757418060087</v>
+      </c>
+      <c r="D7" s="100">
+        <f>'Saudi Arabia Workbook'!J17</f>
+        <v>1.2542562147244056</v>
+      </c>
+      <c r="E7" s="100">
+        <f>'Saudi Arabia Workbook'!K17</f>
+        <v>1.1944526582091179</v>
+      </c>
+      <c r="F7" s="100">
+        <f>'Saudi Arabia Workbook'!L17</f>
+        <v>1.1939284859607906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="99">
+        <f>'Saudi Arabia Workbook'!G18</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="100">
+        <f>'Saudi Arabia Workbook'!H18</f>
+        <v>1.1196538982182709</v>
+      </c>
+      <c r="C8" s="100">
+        <f>'Saudi Arabia Workbook'!I18</f>
+        <v>1.0884299645035702</v>
+      </c>
+      <c r="D8" s="100">
+        <f>'Saudi Arabia Workbook'!J18</f>
+        <v>1.2887861579363036</v>
+      </c>
+      <c r="E8" s="100">
+        <f>'Saudi Arabia Workbook'!K18</f>
+        <v>1.2642116392150053</v>
+      </c>
+      <c r="F8" s="100">
+        <f>'Saudi Arabia Workbook'!L18</f>
+        <v>1.2638381896640267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="99">
+        <f>'Saudi Arabia Workbook'!G19</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="100">
+        <f>'Saudi Arabia Workbook'!H19</f>
+        <v>1.1513920901474408</v>
+      </c>
+      <c r="C9" s="100">
+        <f>'Saudi Arabia Workbook'!I19</f>
+        <v>1.0967693701882939</v>
+      </c>
+      <c r="D9" s="100">
+        <f>'Saudi Arabia Workbook'!J19</f>
+        <v>1.3288676226816829</v>
+      </c>
+      <c r="E9" s="100">
+        <f>'Saudi Arabia Workbook'!K19</f>
+        <v>1.3114333621930221</v>
+      </c>
+      <c r="F9" s="100">
+        <f>'Saudi Arabia Workbook'!L19</f>
+        <v>1.3113271852107722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="99">
+        <f>'Saudi Arabia Workbook'!G20</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="100">
+        <f>'Saudi Arabia Workbook'!H20</f>
+        <v>1.1427761314162368</v>
+      </c>
+      <c r="C10" s="100">
+        <f>'Saudi Arabia Workbook'!I20</f>
+        <v>1.1337100118061223</v>
+      </c>
+      <c r="D10" s="100">
+        <f>'Saudi Arabia Workbook'!J20</f>
+        <v>1.3774051048540374</v>
+      </c>
+      <c r="E10" s="100">
+        <f>'Saudi Arabia Workbook'!K20</f>
+        <v>1.3287388095071753</v>
+      </c>
+      <c r="F10" s="100">
+        <f>'Saudi Arabia Workbook'!L20</f>
+        <v>1.3288449596521386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="99">
+        <f>'Saudi Arabia Workbook'!G21</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="100">
+        <f>'Saudi Arabia Workbook'!H21</f>
+        <v>1.1983682727838145</v>
+      </c>
+      <c r="C11" s="100">
+        <f>'Saudi Arabia Workbook'!I21</f>
+        <v>1.1607140030438332</v>
+      </c>
+      <c r="D11" s="100">
+        <f>'Saudi Arabia Workbook'!J21</f>
+        <v>1.4293099507913594</v>
+      </c>
+      <c r="E11" s="100">
+        <f>'Saudi Arabia Workbook'!K21</f>
+        <v>1.3985542985599342</v>
+      </c>
+      <c r="F11" s="100">
+        <f>'Saudi Arabia Workbook'!L21</f>
+        <v>1.3985144946630135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="99">
+        <f>'Saudi Arabia Workbook'!G22</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="100">
+        <f>'Saudi Arabia Workbook'!H22</f>
+        <v>1.2049262795887754</v>
+      </c>
+      <c r="C12" s="100">
+        <f>'Saudi Arabia Workbook'!I22</f>
+        <v>1.2171908200031087</v>
+      </c>
+      <c r="D12" s="100">
+        <f>'Saudi Arabia Workbook'!J22</f>
+        <v>1.4799043020675728</v>
+      </c>
+      <c r="E12" s="100">
+        <f>'Saudi Arabia Workbook'!K22</f>
+        <v>1.4778722966763729</v>
+      </c>
+      <c r="F12" s="100">
+        <f>'Saudi Arabia Workbook'!L22</f>
+        <v>1.4775536363483226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="99">
+        <f>'Saudi Arabia Workbook'!G23</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="100">
+        <f>'Saudi Arabia Workbook'!H23</f>
+        <v>1.2064674569202063</v>
+      </c>
+      <c r="C13" s="100">
+        <f>'Saudi Arabia Workbook'!I23</f>
+        <v>1.283558835066958</v>
+      </c>
+      <c r="D13" s="100">
+        <f>'Saudi Arabia Workbook'!J23</f>
+        <v>1.5290116903066788</v>
+      </c>
+      <c r="E13" s="100">
+        <f>'Saudi Arabia Workbook'!K23</f>
+        <v>1.5490436872092204</v>
+      </c>
+      <c r="F13" s="100">
+        <f>'Saudi Arabia Workbook'!L23</f>
+        <v>1.5485074695944185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="99">
+        <f>'Saudi Arabia Workbook'!G24</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="100">
+        <f>'Saudi Arabia Workbook'!H24</f>
+        <v>1.29887407163502</v>
+      </c>
+      <c r="C14" s="100">
+        <f>'Saudi Arabia Workbook'!I24</f>
+        <v>1.4080252965623752</v>
+      </c>
+      <c r="D14" s="100">
+        <f>'Saudi Arabia Workbook'!J24</f>
+        <v>1.5999866925486952</v>
+      </c>
+      <c r="E14" s="100">
+        <f>'Saudi Arabia Workbook'!K24</f>
+        <v>1.6406684182219839</v>
+      </c>
+      <c r="F14" s="100">
+        <f>'Saudi Arabia Workbook'!L24</f>
+        <v>1.6397371234737033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="99">
+        <f>'Saudi Arabia Workbook'!G25</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="100">
+        <f>'Saudi Arabia Workbook'!H25</f>
+        <v>1.3672849668898401</v>
+      </c>
+      <c r="C15" s="100">
+        <f>'Saudi Arabia Workbook'!I25</f>
+        <v>1.5175964808297548</v>
+      </c>
+      <c r="D15" s="100">
+        <f>'Saudi Arabia Workbook'!J25</f>
+        <v>1.6704930410708447</v>
+      </c>
+      <c r="E15" s="100">
+        <f>'Saudi Arabia Workbook'!K25</f>
+        <v>1.7613541927456875</v>
+      </c>
+      <c r="F15" s="100">
+        <f>'Saudi Arabia Workbook'!L25</f>
+        <v>1.7599195523214755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="99">
+        <f>'Saudi Arabia Workbook'!G26</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="100">
+        <f>'Saudi Arabia Workbook'!H26</f>
+        <v>1.4432188197417042</v>
+      </c>
+      <c r="C16" s="100">
+        <f>'Saudi Arabia Workbook'!I26</f>
+        <v>1.5716842956517962</v>
+      </c>
+      <c r="D16" s="100">
+        <f>'Saudi Arabia Workbook'!J26</f>
+        <v>1.769911274014887</v>
+      </c>
+      <c r="E16" s="100">
+        <f>'Saudi Arabia Workbook'!K26</f>
+        <v>1.8632201578167815</v>
+      </c>
+      <c r="F16" s="100">
+        <f>'Saudi Arabia Workbook'!L26</f>
+        <v>1.8613755621485268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="99">
+        <f>'Saudi Arabia Workbook'!G27</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="100">
+        <f>'Saudi Arabia Workbook'!H27</f>
+        <v>1.4887910218417297</v>
+      </c>
+      <c r="C17" s="100">
+        <f>'Saudi Arabia Workbook'!I27</f>
+        <v>1.6458238857237517</v>
+      </c>
+      <c r="D17" s="100">
+        <f>'Saudi Arabia Workbook'!J27</f>
+        <v>1.8990427313833096</v>
+      </c>
+      <c r="E17" s="100">
+        <f>'Saudi Arabia Workbook'!K27</f>
+        <v>1.9187111875372393</v>
+      </c>
+      <c r="F17" s="100">
+        <f>'Saudi Arabia Workbook'!L27</f>
+        <v>1.9165663215460058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="99">
+        <f>'Saudi Arabia Workbook'!G28</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="100">
+        <f>'Saudi Arabia Workbook'!H28</f>
+        <v>1.5188234002853693</v>
+      </c>
+      <c r="C18" s="100">
+        <f>'Saudi Arabia Workbook'!I28</f>
+        <v>1.717856820856833</v>
+      </c>
+      <c r="D18" s="100">
+        <f>'Saudi Arabia Workbook'!J28</f>
+        <v>2.065484232116666</v>
+      </c>
+      <c r="E18" s="100">
+        <f>'Saudi Arabia Workbook'!K28</f>
+        <v>2.0011764253558848</v>
+      </c>
+      <c r="F18" s="100">
+        <f>'Saudi Arabia Workbook'!L28</f>
+        <v>1.9995941445010972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="99">
+        <f>'Saudi Arabia Workbook'!G29</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="100">
+        <f>'Saudi Arabia Workbook'!H29</f>
+        <v>1.5830497932901622</v>
+      </c>
+      <c r="C19" s="100">
+        <f>'Saudi Arabia Workbook'!I29</f>
+        <v>1.7883964032978603</v>
+      </c>
+      <c r="D19" s="100">
+        <f>'Saudi Arabia Workbook'!J29</f>
+        <v>2.2829800590735121</v>
+      </c>
+      <c r="E19" s="100">
+        <f>'Saudi Arabia Workbook'!K29</f>
+        <v>2.1346746083409567</v>
+      </c>
+      <c r="F19" s="100">
+        <f>'Saudi Arabia Workbook'!L29</f>
+        <v>2.1329526703153951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="99">
+        <f>'Saudi Arabia Workbook'!G30</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="100">
+        <f>'Saudi Arabia Workbook'!H30</f>
+        <v>1.585551348187173</v>
+      </c>
+      <c r="C20" s="100">
+        <f>'Saudi Arabia Workbook'!I30</f>
+        <v>1.7941336063839641</v>
+      </c>
+      <c r="D20" s="100">
+        <f>'Saudi Arabia Workbook'!J30</f>
+        <v>2.4182647662083312</v>
+      </c>
+      <c r="E20" s="100">
+        <f>'Saudi Arabia Workbook'!K30</f>
+        <v>2.1067148976283145</v>
+      </c>
+      <c r="F20" s="100">
+        <f>'Saudi Arabia Workbook'!L30</f>
+        <v>2.1050764571092109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="99">
+        <f>'Saudi Arabia Workbook'!G31</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="100">
+        <f>'Saudi Arabia Workbook'!H31</f>
+        <v>1.659024805180551</v>
+      </c>
+      <c r="C21" s="100">
+        <f>'Saudi Arabia Workbook'!I31</f>
+        <v>1.8635175216746698</v>
+      </c>
+      <c r="D21" s="100">
+        <f>'Saudi Arabia Workbook'!J31</f>
+        <v>2.5547037500976364</v>
+      </c>
+      <c r="E21" s="100">
+        <f>'Saudi Arabia Workbook'!K31</f>
+        <v>1.9178449496864511</v>
+      </c>
+      <c r="F21" s="100">
+        <f>'Saudi Arabia Workbook'!L31</f>
+        <v>1.9096164604442074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="99">
+        <f>'Saudi Arabia Workbook'!G32</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="100">
+        <f>'Saudi Arabia Workbook'!H32</f>
+        <v>1.7712426371053305</v>
+      </c>
+      <c r="C22" s="100">
+        <f>'Saudi Arabia Workbook'!I32</f>
+        <v>1.9065922194592113</v>
+      </c>
+      <c r="D22" s="100">
+        <f>'Saudi Arabia Workbook'!J32</f>
+        <v>2.6944319887985975</v>
+      </c>
+      <c r="E22" s="100">
+        <f>'Saudi Arabia Workbook'!K32</f>
+        <v>2.7388384741750094</v>
+      </c>
+      <c r="F22" s="100">
+        <f>'Saudi Arabia Workbook'!L32</f>
+        <v>2.7405849786256793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA28"/>
   <sheetViews>
@@ -5753,17 +6503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="18" customFormat="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="18" customFormat="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="18" customFormat="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="83" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6328,7 +7078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG80"/>
   <sheetViews>
@@ -9483,25 +10233,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="W28:W29"/>
@@ -9516,6 +10247,25 @@
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="S28:S29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="21075" windowHeight="9675" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="400" windowWidth="23400" windowHeight="14660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia Workbook" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,17 @@
     <sheet name="Employment calcs" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy calcs" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>Notes</t>
   </si>
@@ -828,6 +833,18 @@
   <si>
     <t>iX</t>
   </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>iU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -839,9 +856,9 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1142,29 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1613,11 +1653,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1633,7 +1673,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1642,12 +1682,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,7 +1696,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,7 +1705,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1676,11 +1716,11 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,7 +1729,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -1725,7 +1765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="490">
+  <cellStyleXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2222,8 +2262,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2427,14 +2469,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2463,18 +2515,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="490">
+  <cellStyles count="492">
     <cellStyle name="•\Ž¦Ï‚Ý‚ÌƒnƒCƒp[ƒŠƒ“ƒN" xfId="42"/>
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="54"/>
@@ -2788,6 +2836,7 @@
     <cellStyle name="Explanatory Text 7" xfId="328"/>
     <cellStyle name="Explanatory Text 8" xfId="329"/>
     <cellStyle name="Explanatory Text 9" xfId="330"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
     <cellStyle name="ƒnƒCƒp[ƒŠƒ“ƒN" xfId="44"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 10" xfId="331"/>
@@ -2871,6 +2920,7 @@
     <cellStyle name="Heading 4 7" xfId="378"/>
     <cellStyle name="Heading 4 8" xfId="379"/>
     <cellStyle name="Heading 4 9" xfId="380"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input 10" xfId="381"/>
     <cellStyle name="Input 11" xfId="382"/>
@@ -2997,10 +3047,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7399798269486064E-2"/>
-          <c:y val="6.5750539526932494E-2"/>
-          <c:w val="0.88411797621602561"/>
-          <c:h val="0.83398254540392658"/>
+          <c:x val="0.0773997982694861"/>
+          <c:y val="0.0657505395269325"/>
+          <c:w val="0.884117976216026"/>
+          <c:h val="0.833982545403927"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3029,67 +3079,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,58 +3151,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0462856254344566</c:v>
+                  <c:v>1.046285625434457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0465554457981194</c:v>
+                  <c:v>1.046555445798119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0535250429883292</c:v>
+                  <c:v>1.053525042988329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0556378736326053</c:v>
+                  <c:v>1.055637873632605</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.091359345845681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1196538982182709</c:v>
+                  <c:v>1.119653898218271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1513920901474408</c:v>
+                  <c:v>1.151392090147441</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1427761314162368</c:v>
+                  <c:v>1.142776131416237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1983682727838145</c:v>
+                  <c:v>1.198368272783814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2049262795887754</c:v>
+                  <c:v>1.204926279588775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2064674569202063</c:v>
+                  <c:v>1.206467456920206</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.29887407163502</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3672849668898401</c:v>
+                  <c:v>1.36728496688984</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4432188197417042</c:v>
+                  <c:v>1.443218819741704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4887910218417297</c:v>
+                  <c:v>1.48879102184173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5188234002853693</c:v>
+                  <c:v>1.518823400285369</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5830497932901622</c:v>
+                  <c:v>1.583049793290162</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.585551348187173</c:v>
@@ -3161,7 +3211,7 @@
                   <c:v>1.659024805180551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7712426371053305</c:v>
+                  <c:v>1.77124263710533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,67 +3241,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,67 +3313,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0598546016298735</c:v>
+                  <c:v>1.059854601629874</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.116506736173992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1702659465214034</c:v>
+                  <c:v>1.170265946521403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2187947499211678</c:v>
+                  <c:v>1.218794749921168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2542562147244056</c:v>
+                  <c:v>1.254256214724406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2887861579363036</c:v>
+                  <c:v>1.288786157936304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3288676226816829</c:v>
+                  <c:v>1.328867622681683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3774051048540374</c:v>
+                  <c:v>1.377405104854037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4293099507913594</c:v>
+                  <c:v>1.429309950791359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4799043020675728</c:v>
+                  <c:v>1.479904302067573</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5290116903066788</c:v>
+                  <c:v>1.529011690306679</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5999866925486952</c:v>
+                  <c:v>1.599986692548695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6704930410708447</c:v>
+                  <c:v>1.670493041070845</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.769911274014887</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8990427313833096</c:v>
+                  <c:v>1.89904273138331</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2.065484232116666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2829800590735121</c:v>
+                  <c:v>2.282980059073512</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4182647662083312</c:v>
+                  <c:v>2.418264766208331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5547037500976364</c:v>
+                  <c:v>2.554703750097636</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6944319887985975</c:v>
+                  <c:v>2.694431988798597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3353,67 +3403,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,67 +3475,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.049243271788266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0791928743751737</c:v>
+                  <c:v>1.079192874375174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1059441576535314</c:v>
+                  <c:v>1.105944157653531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1257132484303041</c:v>
+                  <c:v>1.125713248430304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1207757418060087</c:v>
+                  <c:v>1.120775741806009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0884299645035702</c:v>
+                  <c:v>1.08842996450357</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0967693701882939</c:v>
+                  <c:v>1.096769370188294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1337100118061223</c:v>
+                  <c:v>1.133710011806122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1607140030438332</c:v>
+                  <c:v>1.160714003043833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2171908200031087</c:v>
+                  <c:v>1.217190820003109</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.283558835066958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4080252965623752</c:v>
+                  <c:v>1.408025296562375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5175964808297548</c:v>
+                  <c:v>1.517596480829755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5716842956517962</c:v>
+                  <c:v>1.571684295651796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6458238857237517</c:v>
+                  <c:v>1.645823885723752</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.717856820856833</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7883964032978603</c:v>
+                  <c:v>1.78839640329786</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7941336063839641</c:v>
+                  <c:v>1.794133606383964</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8635175216746698</c:v>
+                  <c:v>1.86351752167467</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9065922194592113</c:v>
+                  <c:v>1.906592219459211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,67 +3567,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,67 +3639,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0552750220185432</c:v>
+                  <c:v>1.055275022018543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0982401762783225</c:v>
+                  <c:v>1.098240176278322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1313401623007886</c:v>
+                  <c:v>1.131340162300789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1159596428499299</c:v>
+                  <c:v>1.11595964284993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1939284859607906</c:v>
+                  <c:v>1.193928485960791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2638381896640267</c:v>
+                  <c:v>1.263838189664027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3113271852107722</c:v>
+                  <c:v>1.311327185210772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3288449596521386</c:v>
+                  <c:v>1.328844959652139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3985144946630135</c:v>
+                  <c:v>1.398514494663013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4775536363483226</c:v>
+                  <c:v>1.477553636348323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5485074695944185</c:v>
+                  <c:v>1.548507469594419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6397371234737033</c:v>
+                  <c:v>1.639737123473703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7599195523214755</c:v>
+                  <c:v>1.759919552321475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8613755621485268</c:v>
+                  <c:v>1.861375562148527</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9165663215460058</c:v>
+                  <c:v>1.916566321546006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9995941445010972</c:v>
+                  <c:v>1.999594144501097</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1329526703153951</c:v>
+                  <c:v>2.132952670315395</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1050764571092109</c:v>
+                  <c:v>2.105076457109211</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9096164604442074</c:v>
+                  <c:v>1.909616460444207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7405849786256793</c:v>
+                  <c:v>2.74058497862568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,67 +3735,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1992</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1995</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1996</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1998</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1999</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2001</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2002</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2003</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,67 +3807,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0553171644611117</c:v>
+                  <c:v>1.055317164461112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0983667364402538</c:v>
+                  <c:v>1.098366736440254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1316635736809988</c:v>
+                  <c:v>1.131663573680999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1167930255914418</c:v>
+                  <c:v>1.116793025591442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1944526582091179</c:v>
+                  <c:v>1.194452658209118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2642116392150053</c:v>
+                  <c:v>1.264211639215005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3114333621930221</c:v>
+                  <c:v>1.311433362193022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3287388095071753</c:v>
+                  <c:v>1.328738809507175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3985542985599342</c:v>
+                  <c:v>1.398554298559934</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4778722966763729</c:v>
+                  <c:v>1.477872296676373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5490436872092204</c:v>
+                  <c:v>1.54904368720922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6406684182219839</c:v>
+                  <c:v>1.640668418221984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7613541927456875</c:v>
+                  <c:v>1.761354192745687</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8632201578167815</c:v>
+                  <c:v>1.863220157816781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9187111875372393</c:v>
+                  <c:v>1.918711187537239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0011764253558848</c:v>
+                  <c:v>2.001176425355885</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1346746083409567</c:v>
+                  <c:v>2.134674608340956</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1067148976283145</c:v>
+                  <c:v>2.106714897628314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9178449496864511</c:v>
+                  <c:v>1.917844949686451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7388384741750094</c:v>
+                  <c:v>2.738838474175009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,11 +3882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96097024"/>
-        <c:axId val="96105984"/>
+        <c:axId val="-2147250632"/>
+        <c:axId val="-2147258712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96097024"/>
+        <c:axId val="-2147250632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,8 +3917,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47508528869201988"/>
-              <c:y val="0.94827199625997916"/>
+              <c:x val="0.47508528869202"/>
+              <c:y val="0.948271996259979"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3887,12 +3937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96105984"/>
+        <c:crossAx val="-2147258712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96105984"/>
+        <c:axId val="-2147258712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3918,8 +3968,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1328148495085056E-2"/>
-              <c:y val="0.34379986184678152"/>
+              <c:x val="0.0113281484950851"/>
+              <c:y val="0.343799861846782"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3938,10 +3988,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96097024"/>
+        <c:crossAx val="-2147250632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4739,31 +4789,31 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="83" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="83" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="77" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="83" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="79"/>
       <c r="G1" s="83"/>
       <c r="K1" s="83"/>
@@ -4881,35 +4931,35 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="89" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="84"/>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="85" t="s">
+      <c r="L10" s="89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4917,38 +4967,38 @@
       <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>1991</v>
       </c>
-      <c r="B12" s="97">
+      <c r="B12" s="85">
         <v>218664</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="86">
         <v>4845900.3947999999</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="85">
         <v>345671</v>
       </c>
       <c r="E12" s="78">
         <v>3917281.8361268877</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="86">
         <v>4133205.565771067</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="86">
         <f>A12-$A$12</f>
         <v>0</v>
       </c>
@@ -4977,22 +5027,22 @@
       <c r="A13" s="1">
         <v>1992</v>
       </c>
-      <c r="B13" s="97">
+      <c r="B13" s="85">
         <v>228785</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="86">
         <v>5084528.3850000016</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="85">
         <v>366361</v>
       </c>
       <c r="E13" s="78">
         <v>4133974.759696444</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="86">
         <v>4361668.5944262277</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="86">
         <f t="shared" ref="G13:G32" si="1">A13-$A$12</f>
         <v>1</v>
       </c>
@@ -5021,22 +5071,22 @@
       <c r="A14" s="1">
         <v>1993</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B14" s="85">
         <v>228844</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="86">
         <v>5229661.1760000009</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="85">
         <v>385944</v>
       </c>
       <c r="E14" s="78">
         <v>4302612.0660633752</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="86">
         <v>4539252.4091469599</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="86">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5066,22 +5116,22 @@
       <c r="A15" s="1">
         <v>1994</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="85">
         <v>230368</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="86">
         <v>5359295.230200001</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="85">
         <v>404527</v>
       </c>
       <c r="E15" s="78">
         <v>4433045.1617870182</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="86">
         <v>4676061.4556019614</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="86">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5110,22 +5160,22 @@
       <c r="A16" s="1">
         <v>1995</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="85">
         <v>230830</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="86">
         <v>5455094.2750000004</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="85">
         <v>421302</v>
       </c>
       <c r="E16" s="78">
         <v>4374793.0338625452</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="86">
         <v>4612490.6070032222</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="86">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5154,22 +5204,22 @@
       <c r="A17" s="1">
         <v>1996</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="85">
         <v>238641</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="86">
         <v>5431167.6096999999</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="85">
         <v>433560</v>
       </c>
       <c r="E17" s="78">
         <v>4679007.7021160554</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="86">
         <v>4934751.8633057633</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="86">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5198,22 +5248,22 @@
       <c r="A18" s="1">
         <v>1997</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="85">
         <v>244828</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="86">
         <v>5274423.1947000008</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="85">
         <v>445496</v>
       </c>
       <c r="E18" s="78">
         <v>4952273.2913171388</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="86">
         <v>5223703.0397533849</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="86">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5242,22 +5292,22 @@
       <c r="A19" s="1">
         <v>1998</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="85">
         <v>251768</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="86">
         <v>5314835.1240000008</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D19" s="85">
         <v>459351</v>
       </c>
       <c r="E19" s="78">
         <v>5137254.0890095392</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="86">
         <v>5419984.8204600709</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="86">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5286,22 +5336,22 @@
       <c r="A20" s="1">
         <v>1999</v>
       </c>
-      <c r="B20" s="97">
+      <c r="B20" s="85">
         <v>249884</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="86">
         <v>5493845.7938000001</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="85">
         <v>476129</v>
       </c>
       <c r="E20" s="78">
         <v>5205044.4034393225</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="86">
         <v>5492389.3832810484</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="86">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5330,22 +5380,22 @@
       <c r="A21" s="1">
         <v>2000</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="85">
         <v>262040</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="86">
         <v>5624704.4455999993</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="85">
         <v>494071</v>
       </c>
       <c r="E21" s="78">
         <v>5478531.3505860101</v>
       </c>
-      <c r="F21" s="98">
+      <c r="F21" s="86">
         <v>5780347.8931526784</v>
       </c>
-      <c r="G21" s="98">
+      <c r="G21" s="86">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5374,22 +5424,22 @@
       <c r="A22" s="1">
         <v>2001</v>
       </c>
-      <c r="B22" s="97">
+      <c r="B22" s="85">
         <v>263474</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="86">
         <v>5898385.4752000002</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="85">
         <v>511560</v>
       </c>
       <c r="E22" s="78">
         <v>5789242.3038854823</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="86">
         <v>6107032.9134801663</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="86">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5418,22 +5468,22 @@
       <c r="A23" s="1">
         <v>2002</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="85">
         <v>263811</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="86">
         <v>6219998.2655999996</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="85">
         <v>528535</v>
       </c>
       <c r="E23" s="78">
         <v>6068040.6992716994</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="86">
         <v>6400299.6919657225</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="86">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -5462,22 +5512,22 @@
       <c r="A24" s="1">
         <v>2003</v>
       </c>
-      <c r="B24" s="97">
+      <c r="B24" s="85">
         <v>284017</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="86">
         <v>6823150.3405000009</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="85">
         <v>553069</v>
       </c>
       <c r="E24" s="78">
         <v>6426960.5938080102</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="86">
         <v>6777370.6051429501</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="86">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5506,22 +5556,22 @@
       <c r="A25" s="1">
         <v>2004</v>
       </c>
-      <c r="B25" s="97">
+      <c r="B25" s="85">
         <v>298976</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="86">
         <v>7354121.3855999997</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="85">
         <v>577441</v>
       </c>
       <c r="E25" s="78">
         <v>6899720.7862286186</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="86">
         <v>7274109.2889644466</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="86">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5550,22 +5600,22 @@
       <c r="A26" s="1">
         <v>2005</v>
       </c>
-      <c r="B26" s="97">
+      <c r="B26" s="85">
         <v>315580</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="86">
         <v>7616225.5487999991</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="85">
         <v>611807</v>
       </c>
       <c r="E26" s="78">
         <v>7298758.4809211511</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="86">
         <v>7693447.8334625401</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="86">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5594,22 +5644,22 @@
       <c r="A27" s="1">
         <v>2006</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="85">
         <v>325545</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="86">
         <v>7975498.6175999986</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="85">
         <v>656444</v>
       </c>
       <c r="E27" s="78">
         <v>7516132.4837130783</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="86">
         <v>7921562.5873833317</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="86">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5638,22 +5688,22 @@
       <c r="A28" s="1">
         <v>2007</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="85">
         <v>332112</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="86">
         <v>8324563.0463999994</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="85">
         <v>713978</v>
       </c>
       <c r="E28" s="78">
         <v>7839172.0619319426</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="86">
         <v>8264733.6473351698</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="86">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -5682,22 +5732,22 @@
       <c r="A29" s="1">
         <v>2008</v>
       </c>
-      <c r="B29" s="97">
+      <c r="B29" s="85">
         <v>346156</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="86">
         <v>8666390.8368000016</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="85">
         <v>789160</v>
       </c>
       <c r="E29" s="78">
         <v>8362122.0692953076</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="86">
         <v>8815931.8484738506</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="86">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5726,22 +5776,22 @@
       <c r="A30" s="1">
         <v>2009</v>
       </c>
-      <c r="B30" s="97">
+      <c r="B30" s="85">
         <v>346703</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="86">
         <v>8694192.7514999993</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="85">
         <v>835924</v>
       </c>
       <c r="E30" s="78">
         <v>8252596.0023773126</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="86">
         <v>8700713.72889743</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="86">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -5770,22 +5820,22 @@
       <c r="A31" s="1">
         <v>2010</v>
       </c>
-      <c r="B31" s="97">
+      <c r="B31" s="85">
         <v>362769</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="86">
         <v>9030420.2939999998</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="85">
         <v>883087</v>
       </c>
       <c r="E31" s="78">
         <v>7512739.1859144196</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="86">
         <v>7892837.3827960426</v>
       </c>
-      <c r="G31" s="98">
+      <c r="G31" s="86">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5814,22 +5864,22 @@
       <c r="A32" s="1">
         <v>2011</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="85">
         <v>387307</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="86">
         <v>9239155.9890000001</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="85">
         <v>931387</v>
       </c>
       <c r="E32" s="78">
         <v>10728802.206971245</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="86">
         <v>11327401.087124238</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="86">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5882,6 +5932,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="B10:B11"/>
@@ -5889,599 +5943,828 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I1" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="8.83203125" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="str">
+        <f>'Saudi Arabia Workbook'!A11</f>
+        <v>Year</v>
+      </c>
+      <c r="B1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!G9</f>
         <v>iYear</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="C1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!H9</f>
         <v>iGDP</v>
       </c>
-      <c r="C1" s="20" t="str">
+      <c r="D1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!I9</f>
         <v>iLabor</v>
       </c>
-      <c r="D1" s="20" t="str">
+      <c r="E1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!J9</f>
         <v>iCapStk</v>
       </c>
-      <c r="E1" s="20" t="str">
+      <c r="F1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!K9</f>
         <v>iQ</v>
       </c>
-      <c r="F1" s="20" t="str">
+      <c r="G1" s="20" t="str">
         <f>'Saudi Arabia Workbook'!L9</f>
         <v>iX</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="99">
+      <c r="H1" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="20">
+        <f>'Saudi Arabia Workbook'!A12</f>
+        <v>1991</v>
+      </c>
+      <c r="B2" s="87">
         <f>'Saudi Arabia Workbook'!G12</f>
         <v>0</v>
       </c>
-      <c r="B2" s="100">
+      <c r="C2" s="88">
         <f>'Saudi Arabia Workbook'!H12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="100">
+      <c r="D2" s="88">
         <f>'Saudi Arabia Workbook'!I12</f>
         <v>1</v>
       </c>
-      <c r="D2" s="100">
+      <c r="E2" s="88">
         <f>'Saudi Arabia Workbook'!J12</f>
         <v>1</v>
       </c>
-      <c r="E2" s="100">
+      <c r="F2" s="88">
         <f>'Saudi Arabia Workbook'!K12</f>
         <v>1</v>
       </c>
-      <c r="F2" s="100">
+      <c r="G2" s="88">
         <f>'Saudi Arabia Workbook'!L12</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="99">
+      <c r="H2" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20">
+        <f>'Saudi Arabia Workbook'!A13</f>
+        <v>1992</v>
+      </c>
+      <c r="B3" s="87">
         <f>'Saudi Arabia Workbook'!G13</f>
         <v>1</v>
       </c>
-      <c r="B3" s="100">
+      <c r="C3" s="88">
         <f>'Saudi Arabia Workbook'!H13</f>
         <v>1.0462856254344566</v>
       </c>
-      <c r="C3" s="100">
+      <c r="D3" s="88">
         <f>'Saudi Arabia Workbook'!I13</f>
         <v>1.049243271788266</v>
       </c>
-      <c r="D3" s="100">
+      <c r="E3" s="88">
         <f>'Saudi Arabia Workbook'!J13</f>
         <v>1.0598546016298735</v>
       </c>
-      <c r="E3" s="100">
+      <c r="F3" s="88">
         <f>'Saudi Arabia Workbook'!K13</f>
         <v>1.0553171644611117</v>
       </c>
-      <c r="F3" s="100">
+      <c r="G3" s="88">
         <f>'Saudi Arabia Workbook'!L13</f>
         <v>1.0552750220185432</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="99">
+      <c r="H3" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="20">
+        <f>'Saudi Arabia Workbook'!A14</f>
+        <v>1993</v>
+      </c>
+      <c r="B4" s="87">
         <f>'Saudi Arabia Workbook'!G14</f>
         <v>2</v>
       </c>
-      <c r="B4" s="100">
+      <c r="C4" s="88">
         <f>'Saudi Arabia Workbook'!H14</f>
         <v>1.0465554457981194</v>
       </c>
-      <c r="C4" s="100">
+      <c r="D4" s="88">
         <f>'Saudi Arabia Workbook'!I14</f>
         <v>1.0791928743751737</v>
       </c>
-      <c r="D4" s="100">
+      <c r="E4" s="88">
         <f>'Saudi Arabia Workbook'!J14</f>
         <v>1.116506736173992</v>
       </c>
-      <c r="E4" s="100">
+      <c r="F4" s="88">
         <f>'Saudi Arabia Workbook'!K14</f>
         <v>1.0983667364402538</v>
       </c>
-      <c r="F4" s="100">
+      <c r="G4" s="88">
         <f>'Saudi Arabia Workbook'!L14</f>
         <v>1.0982401762783225</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="99">
+      <c r="H4" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="20">
+        <f>'Saudi Arabia Workbook'!A15</f>
+        <v>1994</v>
+      </c>
+      <c r="B5" s="87">
         <f>'Saudi Arabia Workbook'!G15</f>
         <v>3</v>
       </c>
-      <c r="B5" s="100">
+      <c r="C5" s="88">
         <f>'Saudi Arabia Workbook'!H15</f>
         <v>1.0535250429883292</v>
       </c>
-      <c r="C5" s="100">
+      <c r="D5" s="88">
         <f>'Saudi Arabia Workbook'!I15</f>
         <v>1.1059441576535314</v>
       </c>
-      <c r="D5" s="100">
+      <c r="E5" s="88">
         <f>'Saudi Arabia Workbook'!J15</f>
         <v>1.1702659465214034</v>
       </c>
-      <c r="E5" s="100">
+      <c r="F5" s="88">
         <f>'Saudi Arabia Workbook'!K15</f>
         <v>1.1316635736809988</v>
       </c>
-      <c r="F5" s="100">
+      <c r="G5" s="88">
         <f>'Saudi Arabia Workbook'!L15</f>
         <v>1.1313401623007886</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="99">
+      <c r="H5" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="20">
+        <f>'Saudi Arabia Workbook'!A16</f>
+        <v>1995</v>
+      </c>
+      <c r="B6" s="87">
         <f>'Saudi Arabia Workbook'!G16</f>
         <v>4</v>
       </c>
-      <c r="B6" s="100">
+      <c r="C6" s="88">
         <f>'Saudi Arabia Workbook'!H16</f>
         <v>1.0556378736326053</v>
       </c>
-      <c r="C6" s="100">
+      <c r="D6" s="88">
         <f>'Saudi Arabia Workbook'!I16</f>
         <v>1.1257132484303041</v>
       </c>
-      <c r="D6" s="100">
+      <c r="E6" s="88">
         <f>'Saudi Arabia Workbook'!J16</f>
         <v>1.2187947499211678</v>
       </c>
-      <c r="E6" s="100">
+      <c r="F6" s="88">
         <f>'Saudi Arabia Workbook'!K16</f>
         <v>1.1167930255914418</v>
       </c>
-      <c r="F6" s="100">
+      <c r="G6" s="88">
         <f>'Saudi Arabia Workbook'!L16</f>
         <v>1.1159596428499299</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="99">
+      <c r="H6" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="20">
+        <f>'Saudi Arabia Workbook'!A17</f>
+        <v>1996</v>
+      </c>
+      <c r="B7" s="87">
         <f>'Saudi Arabia Workbook'!G17</f>
         <v>5</v>
       </c>
-      <c r="B7" s="100">
+      <c r="C7" s="88">
         <f>'Saudi Arabia Workbook'!H17</f>
         <v>1.091359345845681</v>
       </c>
-      <c r="C7" s="100">
+      <c r="D7" s="88">
         <f>'Saudi Arabia Workbook'!I17</f>
         <v>1.1207757418060087</v>
       </c>
-      <c r="D7" s="100">
+      <c r="E7" s="88">
         <f>'Saudi Arabia Workbook'!J17</f>
         <v>1.2542562147244056</v>
       </c>
-      <c r="E7" s="100">
+      <c r="F7" s="88">
         <f>'Saudi Arabia Workbook'!K17</f>
         <v>1.1944526582091179</v>
       </c>
-      <c r="F7" s="100">
+      <c r="G7" s="88">
         <f>'Saudi Arabia Workbook'!L17</f>
         <v>1.1939284859607906</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="99">
+      <c r="H7" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="20">
+        <f>'Saudi Arabia Workbook'!A18</f>
+        <v>1997</v>
+      </c>
+      <c r="B8" s="87">
         <f>'Saudi Arabia Workbook'!G18</f>
         <v>6</v>
       </c>
-      <c r="B8" s="100">
+      <c r="C8" s="88">
         <f>'Saudi Arabia Workbook'!H18</f>
         <v>1.1196538982182709</v>
       </c>
-      <c r="C8" s="100">
+      <c r="D8" s="88">
         <f>'Saudi Arabia Workbook'!I18</f>
         <v>1.0884299645035702</v>
       </c>
-      <c r="D8" s="100">
+      <c r="E8" s="88">
         <f>'Saudi Arabia Workbook'!J18</f>
         <v>1.2887861579363036</v>
       </c>
-      <c r="E8" s="100">
+      <c r="F8" s="88">
         <f>'Saudi Arabia Workbook'!K18</f>
         <v>1.2642116392150053</v>
       </c>
-      <c r="F8" s="100">
+      <c r="G8" s="88">
         <f>'Saudi Arabia Workbook'!L18</f>
         <v>1.2638381896640267</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="99">
+      <c r="H8" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20">
+        <f>'Saudi Arabia Workbook'!A19</f>
+        <v>1998</v>
+      </c>
+      <c r="B9" s="87">
         <f>'Saudi Arabia Workbook'!G19</f>
         <v>7</v>
       </c>
-      <c r="B9" s="100">
+      <c r="C9" s="88">
         <f>'Saudi Arabia Workbook'!H19</f>
         <v>1.1513920901474408</v>
       </c>
-      <c r="C9" s="100">
+      <c r="D9" s="88">
         <f>'Saudi Arabia Workbook'!I19</f>
         <v>1.0967693701882939</v>
       </c>
-      <c r="D9" s="100">
+      <c r="E9" s="88">
         <f>'Saudi Arabia Workbook'!J19</f>
         <v>1.3288676226816829</v>
       </c>
-      <c r="E9" s="100">
+      <c r="F9" s="88">
         <f>'Saudi Arabia Workbook'!K19</f>
         <v>1.3114333621930221</v>
       </c>
-      <c r="F9" s="100">
+      <c r="G9" s="88">
         <f>'Saudi Arabia Workbook'!L19</f>
         <v>1.3113271852107722</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="99">
+      <c r="H9" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20">
+        <f>'Saudi Arabia Workbook'!A20</f>
+        <v>1999</v>
+      </c>
+      <c r="B10" s="87">
         <f>'Saudi Arabia Workbook'!G20</f>
         <v>8</v>
       </c>
-      <c r="B10" s="100">
+      <c r="C10" s="88">
         <f>'Saudi Arabia Workbook'!H20</f>
         <v>1.1427761314162368</v>
       </c>
-      <c r="C10" s="100">
+      <c r="D10" s="88">
         <f>'Saudi Arabia Workbook'!I20</f>
         <v>1.1337100118061223</v>
       </c>
-      <c r="D10" s="100">
+      <c r="E10" s="88">
         <f>'Saudi Arabia Workbook'!J20</f>
         <v>1.3774051048540374</v>
       </c>
-      <c r="E10" s="100">
+      <c r="F10" s="88">
         <f>'Saudi Arabia Workbook'!K20</f>
         <v>1.3287388095071753</v>
       </c>
-      <c r="F10" s="100">
+      <c r="G10" s="88">
         <f>'Saudi Arabia Workbook'!L20</f>
         <v>1.3288449596521386</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="99">
+      <c r="H10" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20">
+        <f>'Saudi Arabia Workbook'!A21</f>
+        <v>2000</v>
+      </c>
+      <c r="B11" s="87">
         <f>'Saudi Arabia Workbook'!G21</f>
         <v>9</v>
       </c>
-      <c r="B11" s="100">
+      <c r="C11" s="88">
         <f>'Saudi Arabia Workbook'!H21</f>
         <v>1.1983682727838145</v>
       </c>
-      <c r="C11" s="100">
+      <c r="D11" s="88">
         <f>'Saudi Arabia Workbook'!I21</f>
         <v>1.1607140030438332</v>
       </c>
-      <c r="D11" s="100">
+      <c r="E11" s="88">
         <f>'Saudi Arabia Workbook'!J21</f>
         <v>1.4293099507913594</v>
       </c>
-      <c r="E11" s="100">
+      <c r="F11" s="88">
         <f>'Saudi Arabia Workbook'!K21</f>
         <v>1.3985542985599342</v>
       </c>
-      <c r="F11" s="100">
+      <c r="G11" s="88">
         <f>'Saudi Arabia Workbook'!L21</f>
         <v>1.3985144946630135</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="99">
+      <c r="H11" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="20">
+        <f>'Saudi Arabia Workbook'!A22</f>
+        <v>2001</v>
+      </c>
+      <c r="B12" s="87">
         <f>'Saudi Arabia Workbook'!G22</f>
         <v>10</v>
       </c>
-      <c r="B12" s="100">
+      <c r="C12" s="88">
         <f>'Saudi Arabia Workbook'!H22</f>
         <v>1.2049262795887754</v>
       </c>
-      <c r="C12" s="100">
+      <c r="D12" s="88">
         <f>'Saudi Arabia Workbook'!I22</f>
         <v>1.2171908200031087</v>
       </c>
-      <c r="D12" s="100">
+      <c r="E12" s="88">
         <f>'Saudi Arabia Workbook'!J22</f>
         <v>1.4799043020675728</v>
       </c>
-      <c r="E12" s="100">
+      <c r="F12" s="88">
         <f>'Saudi Arabia Workbook'!K22</f>
         <v>1.4778722966763729</v>
       </c>
-      <c r="F12" s="100">
+      <c r="G12" s="88">
         <f>'Saudi Arabia Workbook'!L22</f>
         <v>1.4775536363483226</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="99">
+      <c r="H12" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20">
+        <f>'Saudi Arabia Workbook'!A23</f>
+        <v>2002</v>
+      </c>
+      <c r="B13" s="87">
         <f>'Saudi Arabia Workbook'!G23</f>
         <v>11</v>
       </c>
-      <c r="B13" s="100">
+      <c r="C13" s="88">
         <f>'Saudi Arabia Workbook'!H23</f>
         <v>1.2064674569202063</v>
       </c>
-      <c r="C13" s="100">
+      <c r="D13" s="88">
         <f>'Saudi Arabia Workbook'!I23</f>
         <v>1.283558835066958</v>
       </c>
-      <c r="D13" s="100">
+      <c r="E13" s="88">
         <f>'Saudi Arabia Workbook'!J23</f>
         <v>1.5290116903066788</v>
       </c>
-      <c r="E13" s="100">
+      <c r="F13" s="88">
         <f>'Saudi Arabia Workbook'!K23</f>
         <v>1.5490436872092204</v>
       </c>
-      <c r="F13" s="100">
+      <c r="G13" s="88">
         <f>'Saudi Arabia Workbook'!L23</f>
         <v>1.5485074695944185</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="99">
+      <c r="H13" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20">
+        <f>'Saudi Arabia Workbook'!A24</f>
+        <v>2003</v>
+      </c>
+      <c r="B14" s="87">
         <f>'Saudi Arabia Workbook'!G24</f>
         <v>12</v>
       </c>
-      <c r="B14" s="100">
+      <c r="C14" s="88">
         <f>'Saudi Arabia Workbook'!H24</f>
         <v>1.29887407163502</v>
       </c>
-      <c r="C14" s="100">
+      <c r="D14" s="88">
         <f>'Saudi Arabia Workbook'!I24</f>
         <v>1.4080252965623752</v>
       </c>
-      <c r="D14" s="100">
+      <c r="E14" s="88">
         <f>'Saudi Arabia Workbook'!J24</f>
         <v>1.5999866925486952</v>
       </c>
-      <c r="E14" s="100">
+      <c r="F14" s="88">
         <f>'Saudi Arabia Workbook'!K24</f>
         <v>1.6406684182219839</v>
       </c>
-      <c r="F14" s="100">
+      <c r="G14" s="88">
         <f>'Saudi Arabia Workbook'!L24</f>
         <v>1.6397371234737033</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="99">
+      <c r="H14" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20">
+        <f>'Saudi Arabia Workbook'!A25</f>
+        <v>2004</v>
+      </c>
+      <c r="B15" s="87">
         <f>'Saudi Arabia Workbook'!G25</f>
         <v>13</v>
       </c>
-      <c r="B15" s="100">
+      <c r="C15" s="88">
         <f>'Saudi Arabia Workbook'!H25</f>
         <v>1.3672849668898401</v>
       </c>
-      <c r="C15" s="100">
+      <c r="D15" s="88">
         <f>'Saudi Arabia Workbook'!I25</f>
         <v>1.5175964808297548</v>
       </c>
-      <c r="D15" s="100">
+      <c r="E15" s="88">
         <f>'Saudi Arabia Workbook'!J25</f>
         <v>1.6704930410708447</v>
       </c>
-      <c r="E15" s="100">
+      <c r="F15" s="88">
         <f>'Saudi Arabia Workbook'!K25</f>
         <v>1.7613541927456875</v>
       </c>
-      <c r="F15" s="100">
+      <c r="G15" s="88">
         <f>'Saudi Arabia Workbook'!L25</f>
         <v>1.7599195523214755</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="99">
+      <c r="H15" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20">
+        <f>'Saudi Arabia Workbook'!A26</f>
+        <v>2005</v>
+      </c>
+      <c r="B16" s="87">
         <f>'Saudi Arabia Workbook'!G26</f>
         <v>14</v>
       </c>
-      <c r="B16" s="100">
+      <c r="C16" s="88">
         <f>'Saudi Arabia Workbook'!H26</f>
         <v>1.4432188197417042</v>
       </c>
-      <c r="C16" s="100">
+      <c r="D16" s="88">
         <f>'Saudi Arabia Workbook'!I26</f>
         <v>1.5716842956517962</v>
       </c>
-      <c r="D16" s="100">
+      <c r="E16" s="88">
         <f>'Saudi Arabia Workbook'!J26</f>
         <v>1.769911274014887</v>
       </c>
-      <c r="E16" s="100">
+      <c r="F16" s="88">
         <f>'Saudi Arabia Workbook'!K26</f>
         <v>1.8632201578167815</v>
       </c>
-      <c r="F16" s="100">
+      <c r="G16" s="88">
         <f>'Saudi Arabia Workbook'!L26</f>
         <v>1.8613755621485268</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="99">
+      <c r="H16" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20">
+        <f>'Saudi Arabia Workbook'!A27</f>
+        <v>2006</v>
+      </c>
+      <c r="B17" s="87">
         <f>'Saudi Arabia Workbook'!G27</f>
         <v>15</v>
       </c>
-      <c r="B17" s="100">
+      <c r="C17" s="88">
         <f>'Saudi Arabia Workbook'!H27</f>
         <v>1.4887910218417297</v>
       </c>
-      <c r="C17" s="100">
+      <c r="D17" s="88">
         <f>'Saudi Arabia Workbook'!I27</f>
         <v>1.6458238857237517</v>
       </c>
-      <c r="D17" s="100">
+      <c r="E17" s="88">
         <f>'Saudi Arabia Workbook'!J27</f>
         <v>1.8990427313833096</v>
       </c>
-      <c r="E17" s="100">
+      <c r="F17" s="88">
         <f>'Saudi Arabia Workbook'!K27</f>
         <v>1.9187111875372393</v>
       </c>
-      <c r="F17" s="100">
+      <c r="G17" s="88">
         <f>'Saudi Arabia Workbook'!L27</f>
         <v>1.9165663215460058</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="99">
+      <c r="H17" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="20">
+        <f>'Saudi Arabia Workbook'!A28</f>
+        <v>2007</v>
+      </c>
+      <c r="B18" s="87">
         <f>'Saudi Arabia Workbook'!G28</f>
         <v>16</v>
       </c>
-      <c r="B18" s="100">
+      <c r="C18" s="88">
         <f>'Saudi Arabia Workbook'!H28</f>
         <v>1.5188234002853693</v>
       </c>
-      <c r="C18" s="100">
+      <c r="D18" s="88">
         <f>'Saudi Arabia Workbook'!I28</f>
         <v>1.717856820856833</v>
       </c>
-      <c r="D18" s="100">
+      <c r="E18" s="88">
         <f>'Saudi Arabia Workbook'!J28</f>
         <v>2.065484232116666</v>
       </c>
-      <c r="E18" s="100">
+      <c r="F18" s="88">
         <f>'Saudi Arabia Workbook'!K28</f>
         <v>2.0011764253558848</v>
       </c>
-      <c r="F18" s="100">
+      <c r="G18" s="88">
         <f>'Saudi Arabia Workbook'!L28</f>
         <v>1.9995941445010972</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="99">
+      <c r="H18" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="20">
+        <f>'Saudi Arabia Workbook'!A29</f>
+        <v>2008</v>
+      </c>
+      <c r="B19" s="87">
         <f>'Saudi Arabia Workbook'!G29</f>
         <v>17</v>
       </c>
-      <c r="B19" s="100">
+      <c r="C19" s="88">
         <f>'Saudi Arabia Workbook'!H29</f>
         <v>1.5830497932901622</v>
       </c>
-      <c r="C19" s="100">
+      <c r="D19" s="88">
         <f>'Saudi Arabia Workbook'!I29</f>
         <v>1.7883964032978603</v>
       </c>
-      <c r="D19" s="100">
+      <c r="E19" s="88">
         <f>'Saudi Arabia Workbook'!J29</f>
         <v>2.2829800590735121</v>
       </c>
-      <c r="E19" s="100">
+      <c r="F19" s="88">
         <f>'Saudi Arabia Workbook'!K29</f>
         <v>2.1346746083409567</v>
       </c>
-      <c r="F19" s="100">
+      <c r="G19" s="88">
         <f>'Saudi Arabia Workbook'!L29</f>
         <v>2.1329526703153951</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="99">
+      <c r="H19" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="20">
+        <f>'Saudi Arabia Workbook'!A30</f>
+        <v>2009</v>
+      </c>
+      <c r="B20" s="87">
         <f>'Saudi Arabia Workbook'!G30</f>
         <v>18</v>
       </c>
-      <c r="B20" s="100">
+      <c r="C20" s="88">
         <f>'Saudi Arabia Workbook'!H30</f>
         <v>1.585551348187173</v>
       </c>
-      <c r="C20" s="100">
+      <c r="D20" s="88">
         <f>'Saudi Arabia Workbook'!I30</f>
         <v>1.7941336063839641</v>
       </c>
-      <c r="D20" s="100">
+      <c r="E20" s="88">
         <f>'Saudi Arabia Workbook'!J30</f>
         <v>2.4182647662083312</v>
       </c>
-      <c r="E20" s="100">
+      <c r="F20" s="88">
         <f>'Saudi Arabia Workbook'!K30</f>
         <v>2.1067148976283145</v>
       </c>
-      <c r="F20" s="100">
+      <c r="G20" s="88">
         <f>'Saudi Arabia Workbook'!L30</f>
         <v>2.1050764571092109</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="99">
+      <c r="H20" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="20">
+        <f>'Saudi Arabia Workbook'!A31</f>
+        <v>2010</v>
+      </c>
+      <c r="B21" s="87">
         <f>'Saudi Arabia Workbook'!G31</f>
         <v>19</v>
       </c>
-      <c r="B21" s="100">
+      <c r="C21" s="88">
         <f>'Saudi Arabia Workbook'!H31</f>
         <v>1.659024805180551</v>
       </c>
-      <c r="C21" s="100">
+      <c r="D21" s="88">
         <f>'Saudi Arabia Workbook'!I31</f>
         <v>1.8635175216746698</v>
       </c>
-      <c r="D21" s="100">
+      <c r="E21" s="88">
         <f>'Saudi Arabia Workbook'!J31</f>
         <v>2.5547037500976364</v>
       </c>
-      <c r="E21" s="100">
+      <c r="F21" s="88">
         <f>'Saudi Arabia Workbook'!K31</f>
         <v>1.9178449496864511</v>
       </c>
-      <c r="F21" s="100">
+      <c r="G21" s="88">
         <f>'Saudi Arabia Workbook'!L31</f>
         <v>1.9096164604442074</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="99">
+      <c r="H21" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="20">
+        <f>'Saudi Arabia Workbook'!A32</f>
+        <v>2011</v>
+      </c>
+      <c r="B22" s="87">
         <f>'Saudi Arabia Workbook'!G32</f>
         <v>20</v>
       </c>
-      <c r="B22" s="100">
+      <c r="C22" s="88">
         <f>'Saudi Arabia Workbook'!H32</f>
         <v>1.7712426371053305</v>
       </c>
-      <c r="C22" s="100">
+      <c r="D22" s="88">
         <f>'Saudi Arabia Workbook'!I32</f>
         <v>1.9065922194592113</v>
       </c>
-      <c r="D22" s="100">
+      <c r="E22" s="88">
         <f>'Saudi Arabia Workbook'!J32</f>
         <v>2.6944319887985975</v>
       </c>
-      <c r="E22" s="100">
+      <c r="F22" s="88">
         <f>'Saudi Arabia Workbook'!K32</f>
         <v>2.7388384741750094</v>
       </c>
-      <c r="F22" s="100">
+      <c r="G22" s="88">
         <f>'Saudi Arabia Workbook'!L32</f>
         <v>2.7405849786256793</v>
       </c>
+      <c r="H22" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6493,13 +6776,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="18" customFormat="1">
@@ -6574,19 +6857,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="7"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="91" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6594,11 +6877,11 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="7">
@@ -7075,6 +7358,11 @@
     <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7082,46 +7370,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J22" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="18" customWidth="1"/>
     <col min="6" max="6" width="27" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="42.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="28.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="18" customWidth="1"/>
     <col min="16" max="16" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="18" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="18" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="18" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="18" customWidth="1"/>
     <col min="26" max="26" width="19" style="18" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" style="18" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" style="18" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="18" customWidth="1"/>
     <col min="29" max="29" width="18" style="18" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="18" customWidth="1"/>
-    <col min="31" max="31" width="23.140625" style="18" customWidth="1"/>
-    <col min="32" max="32" width="21.7109375" style="18" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" style="18" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="18"/>
+    <col min="30" max="30" width="16.6640625" style="18" customWidth="1"/>
+    <col min="31" max="31" width="23.1640625" style="18" customWidth="1"/>
+    <col min="32" max="32" width="21.6640625" style="18" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" style="18" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7192,7 +7480,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="31"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -7203,7 +7491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="32" t="s">
         <v>13</v>
       </c>
@@ -7226,7 +7514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18">
+    <row r="17" spans="1:33" ht="16">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -7273,7 +7561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18">
+    <row r="19" spans="1:33" ht="16">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -7294,7 +7582,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:33" ht="19.5" thickBot="1">
+    <row r="20" spans="1:33" ht="18" thickBot="1">
       <c r="A20" s="39" t="s">
         <v>48</v>
       </c>
@@ -7315,7 +7603,7 @@
       </c>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:33" ht="18.75">
+    <row r="21" spans="1:33" ht="17">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="44">
@@ -7332,7 +7620,7 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:33" ht="18">
+    <row r="22" spans="1:33" ht="16">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="41">
@@ -7350,7 +7638,7 @@
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" thickBot="1">
+    <row r="23" spans="1:33" ht="15" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="36">
@@ -7369,7 +7657,7 @@
       </c>
       <c r="G23" s="75"/>
     </row>
-    <row r="24" spans="1:33" ht="18" thickBot="1">
+    <row r="24" spans="1:33" ht="17" thickBot="1">
       <c r="A24" s="45"/>
       <c r="C24" s="46">
         <f>1000/6</f>
@@ -7387,7 +7675,7 @@
       <c r="A26" s="45"/>
       <c r="C26" s="48"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" thickBot="1">
+    <row r="27" spans="1:33" ht="15" thickBot="1">
       <c r="E27" s="20" t="s">
         <v>52</v>
       </c>
@@ -7402,140 +7690,140 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="89" t="s">
+      <c r="H28" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="89" t="s">
+      <c r="I28" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="89" t="s">
+      <c r="J28" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="89" t="s">
+      <c r="K28" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="95" t="s">
+      <c r="M28" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="89" t="s">
+      <c r="N28" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="O28" s="89" t="s">
+      <c r="O28" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="93" t="s">
+      <c r="P28" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="95" t="s">
+      <c r="Q28" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="89" t="s">
+      <c r="R28" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="89" t="s">
+      <c r="S28" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="89" t="s">
+      <c r="T28" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="89" t="s">
+      <c r="U28" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="89" t="s">
+      <c r="V28" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="W28" s="89" t="s">
+      <c r="W28" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="X28" s="91" t="s">
+      <c r="X28" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="93" t="s">
+      <c r="Y28" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="95" t="s">
+      <c r="Z28" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="AA28" s="89" t="s">
+      <c r="AA28" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="AB28" s="89" t="s">
+      <c r="AB28" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="AC28" s="89" t="s">
+      <c r="AC28" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="AD28" s="89" t="s">
+      <c r="AD28" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="AE28" s="89" t="s">
+      <c r="AE28" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="AF28" s="89" t="s">
+      <c r="AF28" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="AG28" s="91" t="s">
+      <c r="AG28" s="95" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="94"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="96"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="92"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="96"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="49">
@@ -9717,7 +10005,7 @@
         <v>7512739.1859144196</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15.75" thickBot="1">
+    <row r="50" spans="1:33" ht="15" thickBot="1">
       <c r="A50" s="60">
         <v>2011</v>
       </c>
@@ -10233,6 +10521,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="W28:W29"/>
@@ -10247,26 +10554,12 @@
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="S28:S29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/SaudiArabiaDataWorkbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="400" windowWidth="23400" windowHeight="14660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="400" windowWidth="23400" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Saudi Arabia Workbook" sheetId="1" r:id="rId1"/>
@@ -2265,7 +2265,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2479,14 +2479,23 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2514,12 +2523,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="492">
@@ -3478,64 +3481,64 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.049243271788266</c:v>
+                  <c:v>1.049243277822489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.079192874375174</c:v>
+                  <c:v>1.079192925978662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.105944157653531</c:v>
+                  <c:v>1.105944200251759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.125713248430304</c:v>
+                  <c:v>1.12571328339421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.120775741806009</c:v>
+                  <c:v>1.120775913658969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08842996450357</c:v>
+                  <c:v>1.088430013000681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.096769370188294</c:v>
+                  <c:v>1.096769433954477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.133710011806122</c:v>
+                  <c:v>1.133710146721971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.160714003043833</c:v>
+                  <c:v>1.160714005654264</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.217190820003109</c:v>
+                  <c:v>1.217190821106502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.283558835066958</c:v>
+                  <c:v>1.283558884830475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.408025296562375</c:v>
+                  <c:v>1.408025341009926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.517596480829755</c:v>
+                  <c:v>1.517596524897336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.571684295651796</c:v>
+                  <c:v>1.571684516808023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.645823885723752</c:v>
+                  <c:v>1.645824098722631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.717856820856833</c:v>
+                  <c:v>1.717856951237128</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.78839640329786</c:v>
+                  <c:v>1.78839658267814</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.794133606383964</c:v>
+                  <c:v>1.794133803834169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.86351752167467</c:v>
+                  <c:v>1.863517612827338</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.906592219459211</c:v>
+                  <c:v>1.947158216224024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,11 +3885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147250632"/>
-        <c:axId val="-2147258712"/>
+        <c:axId val="2136408568"/>
+        <c:axId val="-2115708008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147250632"/>
+        <c:axId val="2136408568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,12 +3940,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147258712"/>
+        <c:crossAx val="-2115708008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147258712"/>
+        <c:axId val="-2115708008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147250632"/>
+        <c:crossAx val="2136408568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -4785,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4808,12 +4811,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="79"/>
       <c r="G1" s="83"/>
       <c r="K1" s="83"/>
@@ -4931,35 +4934,35 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="80"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="93" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="84"/>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="93" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4967,17 +4970,17 @@
       <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="84"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
@@ -4986,8 +4989,8 @@
       <c r="B12" s="85">
         <v>218664</v>
       </c>
-      <c r="C12" s="86">
-        <v>4845900.3947999999</v>
+      <c r="C12" s="91">
+        <v>4845900</v>
       </c>
       <c r="D12" s="85">
         <v>345671</v>
@@ -5030,8 +5033,8 @@
       <c r="B13" s="85">
         <v>228785</v>
       </c>
-      <c r="C13" s="86">
-        <v>5084528.3850000016</v>
+      <c r="C13" s="91">
+        <v>5084528</v>
       </c>
       <c r="D13" s="85">
         <v>366361</v>
@@ -5052,7 +5055,7 @@
       </c>
       <c r="I13" s="21">
         <f t="shared" ref="I13:I32" si="3">C13/$C$12</f>
-        <v>1.049243271788266</v>
+        <v>1.0492432778224892</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" ref="J13:J32" si="4">D13/$D$12</f>
@@ -5074,8 +5077,8 @@
       <c r="B14" s="85">
         <v>228844</v>
       </c>
-      <c r="C14" s="86">
-        <v>5229661.1760000009</v>
+      <c r="C14" s="91">
+        <v>5229661</v>
       </c>
       <c r="D14" s="85">
         <v>385944</v>
@@ -5096,7 +5099,7 @@
       </c>
       <c r="I14" s="21">
         <f t="shared" si="3"/>
-        <v>1.0791928743751737</v>
+        <v>1.0791929259786623</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="4"/>
@@ -5119,8 +5122,8 @@
       <c r="B15" s="85">
         <v>230368</v>
       </c>
-      <c r="C15" s="86">
-        <v>5359295.230200001</v>
+      <c r="C15" s="91">
+        <v>5359295</v>
       </c>
       <c r="D15" s="85">
         <v>404527</v>
@@ -5141,7 +5144,7 @@
       </c>
       <c r="I15" s="21">
         <f t="shared" si="3"/>
-        <v>1.1059441576535314</v>
+        <v>1.1059442002517592</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="4"/>
@@ -5163,8 +5166,8 @@
       <c r="B16" s="85">
         <v>230830</v>
       </c>
-      <c r="C16" s="86">
-        <v>5455094.2750000004</v>
+      <c r="C16" s="91">
+        <v>5455094</v>
       </c>
       <c r="D16" s="85">
         <v>421302</v>
@@ -5185,7 +5188,7 @@
       </c>
       <c r="I16" s="21">
         <f t="shared" si="3"/>
-        <v>1.1257132484303041</v>
+        <v>1.1257132833942096</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="4"/>
@@ -5207,8 +5210,8 @@
       <c r="B17" s="85">
         <v>238641</v>
       </c>
-      <c r="C17" s="86">
-        <v>5431167.6096999999</v>
+      <c r="C17" s="91">
+        <v>5431168</v>
       </c>
       <c r="D17" s="85">
         <v>433560</v>
@@ -5229,7 +5232,7 @@
       </c>
       <c r="I17" s="21">
         <f t="shared" si="3"/>
-        <v>1.1207757418060087</v>
+        <v>1.1207759136589694</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="4"/>
@@ -5251,8 +5254,8 @@
       <c r="B18" s="85">
         <v>244828</v>
       </c>
-      <c r="C18" s="86">
-        <v>5274423.1947000008</v>
+      <c r="C18" s="91">
+        <v>5274423</v>
       </c>
       <c r="D18" s="85">
         <v>445496</v>
@@ -5273,7 +5276,7 @@
       </c>
       <c r="I18" s="21">
         <f t="shared" si="3"/>
-        <v>1.0884299645035702</v>
+        <v>1.088430013000681</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="4"/>
@@ -5295,8 +5298,8 @@
       <c r="B19" s="85">
         <v>251768</v>
       </c>
-      <c r="C19" s="86">
-        <v>5314835.1240000008</v>
+      <c r="C19" s="91">
+        <v>5314835</v>
       </c>
       <c r="D19" s="85">
         <v>459351</v>
@@ -5317,7 +5320,7 @@
       </c>
       <c r="I19" s="21">
         <f t="shared" si="3"/>
-        <v>1.0967693701882939</v>
+        <v>1.0967694339544769</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="4"/>
@@ -5339,8 +5342,8 @@
       <c r="B20" s="85">
         <v>249884</v>
       </c>
-      <c r="C20" s="86">
-        <v>5493845.7938000001</v>
+      <c r="C20" s="91">
+        <v>5493846</v>
       </c>
       <c r="D20" s="85">
         <v>476129</v>
@@ -5361,7 +5364,7 @@
       </c>
       <c r="I20" s="21">
         <f t="shared" si="3"/>
-        <v>1.1337100118061223</v>
+        <v>1.1337101467219712</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="4"/>
@@ -5383,8 +5386,8 @@
       <c r="B21" s="85">
         <v>262040</v>
       </c>
-      <c r="C21" s="86">
-        <v>5624704.4455999993</v>
+      <c r="C21" s="91">
+        <v>5624704</v>
       </c>
       <c r="D21" s="85">
         <v>494071</v>
@@ -5405,7 +5408,7 @@
       </c>
       <c r="I21" s="21">
         <f t="shared" si="3"/>
-        <v>1.1607140030438332</v>
+        <v>1.1607140056542644</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="4"/>
@@ -5427,8 +5430,8 @@
       <c r="B22" s="85">
         <v>263474</v>
       </c>
-      <c r="C22" s="86">
-        <v>5898385.4752000002</v>
+      <c r="C22" s="91">
+        <v>5898385</v>
       </c>
       <c r="D22" s="85">
         <v>511560</v>
@@ -5449,7 +5452,7 @@
       </c>
       <c r="I22" s="21">
         <f t="shared" si="3"/>
-        <v>1.2171908200031087</v>
+        <v>1.2171908211065023</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="4"/>
@@ -5471,8 +5474,8 @@
       <c r="B23" s="85">
         <v>263811</v>
       </c>
-      <c r="C23" s="86">
-        <v>6219998.2655999996</v>
+      <c r="C23" s="91">
+        <v>6219998</v>
       </c>
       <c r="D23" s="85">
         <v>528535</v>
@@ -5493,7 +5496,7 @@
       </c>
       <c r="I23" s="21">
         <f t="shared" si="3"/>
-        <v>1.283558835066958</v>
+        <v>1.2835588848304753</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="4"/>
@@ -5515,8 +5518,8 @@
       <c r="B24" s="85">
         <v>284017</v>
       </c>
-      <c r="C24" s="86">
-        <v>6823150.3405000009</v>
+      <c r="C24" s="91">
+        <v>6823150</v>
       </c>
       <c r="D24" s="85">
         <v>553069</v>
@@ -5537,7 +5540,7 @@
       </c>
       <c r="I24" s="21">
         <f t="shared" si="3"/>
-        <v>1.4080252965623752</v>
+        <v>1.4080253410099259</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="4"/>
@@ -5559,8 +5562,8 @@
       <c r="B25" s="85">
         <v>298976</v>
       </c>
-      <c r="C25" s="86">
-        <v>7354121.3855999997</v>
+      <c r="C25" s="91">
+        <v>7354121</v>
       </c>
       <c r="D25" s="85">
         <v>577441</v>
@@ -5581,7 +5584,7 @@
       </c>
       <c r="I25" s="21">
         <f t="shared" si="3"/>
-        <v>1.5175964808297548</v>
+        <v>1.517596524897336</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="4"/>
@@ -5603,8 +5606,8 @@
       <c r="B26" s="85">
         <v>315580</v>
       </c>
-      <c r="C26" s="86">
-        <v>7616225.5487999991</v>
+      <c r="C26" s="91">
+        <v>7616226</v>
       </c>
       <c r="D26" s="85">
         <v>611807</v>
@@ -5625,7 +5628,7 @@
       </c>
       <c r="I26" s="21">
         <f t="shared" si="3"/>
-        <v>1.5716842956517962</v>
+        <v>1.5716845168080233</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="4"/>
@@ -5647,8 +5650,8 @@
       <c r="B27" s="85">
         <v>325545</v>
       </c>
-      <c r="C27" s="86">
-        <v>7975498.6175999986</v>
+      <c r="C27" s="91">
+        <v>7975499</v>
       </c>
       <c r="D27" s="85">
         <v>656444</v>
@@ -5669,7 +5672,7 @@
       </c>
       <c r="I27" s="21">
         <f t="shared" si="3"/>
-        <v>1.6458238857237517</v>
+        <v>1.6458240987226316</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="4"/>
@@ -5691,8 +5694,8 @@
       <c r="B28" s="85">
         <v>332112</v>
       </c>
-      <c r="C28" s="86">
-        <v>8324563.0463999994</v>
+      <c r="C28" s="91">
+        <v>8324563</v>
       </c>
       <c r="D28" s="85">
         <v>713978</v>
@@ -5713,7 +5716,7 @@
       </c>
       <c r="I28" s="21">
         <f t="shared" si="3"/>
-        <v>1.717856820856833</v>
+        <v>1.7178569512371282</v>
       </c>
       <c r="J28" s="21">
         <f t="shared" si="4"/>
@@ -5735,8 +5738,8 @@
       <c r="B29" s="85">
         <v>346156</v>
       </c>
-      <c r="C29" s="86">
-        <v>8666390.8368000016</v>
+      <c r="C29" s="91">
+        <v>8666391</v>
       </c>
       <c r="D29" s="85">
         <v>789160</v>
@@ -5757,7 +5760,7 @@
       </c>
       <c r="I29" s="21">
         <f t="shared" si="3"/>
-        <v>1.7883964032978603</v>
+        <v>1.7883965826781403</v>
       </c>
       <c r="J29" s="21">
         <f t="shared" si="4"/>
@@ -5779,8 +5782,8 @@
       <c r="B30" s="85">
         <v>346703</v>
       </c>
-      <c r="C30" s="86">
-        <v>8694192.7514999993</v>
+      <c r="C30" s="91">
+        <v>8694193</v>
       </c>
       <c r="D30" s="85">
         <v>835924</v>
@@ -5801,7 +5804,7 @@
       </c>
       <c r="I30" s="21">
         <f t="shared" si="3"/>
-        <v>1.7941336063839641</v>
+        <v>1.794133803834169</v>
       </c>
       <c r="J30" s="21">
         <f t="shared" si="4"/>
@@ -5823,8 +5826,8 @@
       <c r="B31" s="85">
         <v>362769</v>
       </c>
-      <c r="C31" s="86">
-        <v>9030420.2939999998</v>
+      <c r="C31" s="91">
+        <v>9030420</v>
       </c>
       <c r="D31" s="85">
         <v>883087</v>
@@ -5845,7 +5848,7 @@
       </c>
       <c r="I31" s="21">
         <f t="shared" si="3"/>
-        <v>1.8635175216746698</v>
+        <v>1.8635176128273385</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="4"/>
@@ -5867,8 +5870,8 @@
       <c r="B32" s="85">
         <v>387307</v>
       </c>
-      <c r="C32" s="86">
-        <v>9239155.9890000001</v>
+      <c r="C32" s="91">
+        <v>9435734</v>
       </c>
       <c r="D32" s="85">
         <v>931387</v>
@@ -5889,7 +5892,7 @@
       </c>
       <c r="I32" s="21">
         <f t="shared" si="3"/>
-        <v>1.9065922194592113</v>
+        <v>1.9471582162240244</v>
       </c>
       <c r="J32" s="21">
         <f t="shared" si="4"/>
@@ -5957,7 +5960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5995,7 +5998,7 @@
         <f>'Saudi Arabia Workbook'!L9</f>
         <v>iX</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="89" t="s">
         <v>109</v>
       </c>
       <c r="I1" s="20" t="s">
@@ -6031,7 +6034,7 @@
         <f>'Saudi Arabia Workbook'!L12</f>
         <v>1</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="20" t="s">
@@ -6053,7 +6056,7 @@
       </c>
       <c r="D3" s="88">
         <f>'Saudi Arabia Workbook'!I13</f>
-        <v>1.049243271788266</v>
+        <v>1.0492432778224892</v>
       </c>
       <c r="E3" s="88">
         <f>'Saudi Arabia Workbook'!J13</f>
@@ -6067,7 +6070,7 @@
         <f>'Saudi Arabia Workbook'!L13</f>
         <v>1.0552750220185432</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="20" t="s">
@@ -6089,7 +6092,7 @@
       </c>
       <c r="D4" s="88">
         <f>'Saudi Arabia Workbook'!I14</f>
-        <v>1.0791928743751737</v>
+        <v>1.0791929259786623</v>
       </c>
       <c r="E4" s="88">
         <f>'Saudi Arabia Workbook'!J14</f>
@@ -6103,7 +6106,7 @@
         <f>'Saudi Arabia Workbook'!L14</f>
         <v>1.0982401762783225</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I4" s="20" t="s">
@@ -6125,7 +6128,7 @@
       </c>
       <c r="D5" s="88">
         <f>'Saudi Arabia Workbook'!I15</f>
-        <v>1.1059441576535314</v>
+        <v>1.1059442002517592</v>
       </c>
       <c r="E5" s="88">
         <f>'Saudi Arabia Workbook'!J15</f>
@@ -6139,7 +6142,7 @@
         <f>'Saudi Arabia Workbook'!L15</f>
         <v>1.1313401623007886</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I5" s="20" t="s">
@@ -6161,7 +6164,7 @@
       </c>
       <c r="D6" s="88">
         <f>'Saudi Arabia Workbook'!I16</f>
-        <v>1.1257132484303041</v>
+        <v>1.1257132833942096</v>
       </c>
       <c r="E6" s="88">
         <f>'Saudi Arabia Workbook'!J16</f>
@@ -6175,7 +6178,7 @@
         <f>'Saudi Arabia Workbook'!L16</f>
         <v>1.1159596428499299</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I6" s="20" t="s">
@@ -6197,7 +6200,7 @@
       </c>
       <c r="D7" s="88">
         <f>'Saudi Arabia Workbook'!I17</f>
-        <v>1.1207757418060087</v>
+        <v>1.1207759136589694</v>
       </c>
       <c r="E7" s="88">
         <f>'Saudi Arabia Workbook'!J17</f>
@@ -6211,7 +6214,7 @@
         <f>'Saudi Arabia Workbook'!L17</f>
         <v>1.1939284859607906</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I7" s="20" t="s">
@@ -6233,7 +6236,7 @@
       </c>
       <c r="D8" s="88">
         <f>'Saudi Arabia Workbook'!I18</f>
-        <v>1.0884299645035702</v>
+        <v>1.088430013000681</v>
       </c>
       <c r="E8" s="88">
         <f>'Saudi Arabia Workbook'!J18</f>
@@ -6247,7 +6250,7 @@
         <f>'Saudi Arabia Workbook'!L18</f>
         <v>1.2638381896640267</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -6269,7 +6272,7 @@
       </c>
       <c r="D9" s="88">
         <f>'Saudi Arabia Workbook'!I19</f>
-        <v>1.0967693701882939</v>
+        <v>1.0967694339544769</v>
       </c>
       <c r="E9" s="88">
         <f>'Saudi Arabia Workbook'!J19</f>
@@ -6283,7 +6286,7 @@
         <f>'Saudi Arabia Workbook'!L19</f>
         <v>1.3113271852107722</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I9" s="20" t="s">
@@ -6305,7 +6308,7 @@
       </c>
       <c r="D10" s="88">
         <f>'Saudi Arabia Workbook'!I20</f>
-        <v>1.1337100118061223</v>
+        <v>1.1337101467219712</v>
       </c>
       <c r="E10" s="88">
         <f>'Saudi Arabia Workbook'!J20</f>
@@ -6319,7 +6322,7 @@
         <f>'Saudi Arabia Workbook'!L20</f>
         <v>1.3288449596521386</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="H10" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -6341,7 +6344,7 @@
       </c>
       <c r="D11" s="88">
         <f>'Saudi Arabia Workbook'!I21</f>
-        <v>1.1607140030438332</v>
+        <v>1.1607140056542644</v>
       </c>
       <c r="E11" s="88">
         <f>'Saudi Arabia Workbook'!J21</f>
@@ -6355,7 +6358,7 @@
         <f>'Saudi Arabia Workbook'!L21</f>
         <v>1.3985144946630135</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I11" s="20" t="s">
@@ -6377,7 +6380,7 @@
       </c>
       <c r="D12" s="88">
         <f>'Saudi Arabia Workbook'!I22</f>
-        <v>1.2171908200031087</v>
+        <v>1.2171908211065023</v>
       </c>
       <c r="E12" s="88">
         <f>'Saudi Arabia Workbook'!J22</f>
@@ -6391,7 +6394,7 @@
         <f>'Saudi Arabia Workbook'!L22</f>
         <v>1.4775536363483226</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -6413,7 +6416,7 @@
       </c>
       <c r="D13" s="88">
         <f>'Saudi Arabia Workbook'!I23</f>
-        <v>1.283558835066958</v>
+        <v>1.2835588848304753</v>
       </c>
       <c r="E13" s="88">
         <f>'Saudi Arabia Workbook'!J23</f>
@@ -6427,7 +6430,7 @@
         <f>'Saudi Arabia Workbook'!L23</f>
         <v>1.5485074695944185</v>
       </c>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -6449,7 +6452,7 @@
       </c>
       <c r="D14" s="88">
         <f>'Saudi Arabia Workbook'!I24</f>
-        <v>1.4080252965623752</v>
+        <v>1.4080253410099259</v>
       </c>
       <c r="E14" s="88">
         <f>'Saudi Arabia Workbook'!J24</f>
@@ -6463,7 +6466,7 @@
         <f>'Saudi Arabia Workbook'!L24</f>
         <v>1.6397371234737033</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I14" s="20" t="s">
@@ -6485,7 +6488,7 @@
       </c>
       <c r="D15" s="88">
         <f>'Saudi Arabia Workbook'!I25</f>
-        <v>1.5175964808297548</v>
+        <v>1.517596524897336</v>
       </c>
       <c r="E15" s="88">
         <f>'Saudi Arabia Workbook'!J25</f>
@@ -6499,7 +6502,7 @@
         <f>'Saudi Arabia Workbook'!L25</f>
         <v>1.7599195523214755</v>
       </c>
-      <c r="H15" s="102" t="s">
+      <c r="H15" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I15" s="20" t="s">
@@ -6521,7 +6524,7 @@
       </c>
       <c r="D16" s="88">
         <f>'Saudi Arabia Workbook'!I26</f>
-        <v>1.5716842956517962</v>
+        <v>1.5716845168080233</v>
       </c>
       <c r="E16" s="88">
         <f>'Saudi Arabia Workbook'!J26</f>
@@ -6535,7 +6538,7 @@
         <f>'Saudi Arabia Workbook'!L26</f>
         <v>1.8613755621485268</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I16" s="20" t="s">
@@ -6557,7 +6560,7 @@
       </c>
       <c r="D17" s="88">
         <f>'Saudi Arabia Workbook'!I27</f>
-        <v>1.6458238857237517</v>
+        <v>1.6458240987226316</v>
       </c>
       <c r="E17" s="88">
         <f>'Saudi Arabia Workbook'!J27</f>
@@ -6571,7 +6574,7 @@
         <f>'Saudi Arabia Workbook'!L27</f>
         <v>1.9165663215460058</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I17" s="20" t="s">
@@ -6593,7 +6596,7 @@
       </c>
       <c r="D18" s="88">
         <f>'Saudi Arabia Workbook'!I28</f>
-        <v>1.717856820856833</v>
+        <v>1.7178569512371282</v>
       </c>
       <c r="E18" s="88">
         <f>'Saudi Arabia Workbook'!J28</f>
@@ -6607,7 +6610,7 @@
         <f>'Saudi Arabia Workbook'!L28</f>
         <v>1.9995941445010972</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I18" s="20" t="s">
@@ -6629,7 +6632,7 @@
       </c>
       <c r="D19" s="88">
         <f>'Saudi Arabia Workbook'!I29</f>
-        <v>1.7883964032978603</v>
+        <v>1.7883965826781403</v>
       </c>
       <c r="E19" s="88">
         <f>'Saudi Arabia Workbook'!J29</f>
@@ -6643,7 +6646,7 @@
         <f>'Saudi Arabia Workbook'!L29</f>
         <v>2.1329526703153951</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="20" t="s">
@@ -6665,7 +6668,7 @@
       </c>
       <c r="D20" s="88">
         <f>'Saudi Arabia Workbook'!I30</f>
-        <v>1.7941336063839641</v>
+        <v>1.794133803834169</v>
       </c>
       <c r="E20" s="88">
         <f>'Saudi Arabia Workbook'!J30</f>
@@ -6679,7 +6682,7 @@
         <f>'Saudi Arabia Workbook'!L30</f>
         <v>2.1050764571092109</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="20" t="s">
@@ -6701,7 +6704,7 @@
       </c>
       <c r="D21" s="88">
         <f>'Saudi Arabia Workbook'!I31</f>
-        <v>1.8635175216746698</v>
+        <v>1.8635176128273385</v>
       </c>
       <c r="E21" s="88">
         <f>'Saudi Arabia Workbook'!J31</f>
@@ -6715,7 +6718,7 @@
         <f>'Saudi Arabia Workbook'!L31</f>
         <v>1.9096164604442074</v>
       </c>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I21" s="20" t="s">
@@ -6737,7 +6740,7 @@
       </c>
       <c r="D22" s="88">
         <f>'Saudi Arabia Workbook'!I32</f>
-        <v>1.9065922194592113</v>
+        <v>1.9471582162240244</v>
       </c>
       <c r="E22" s="88">
         <f>'Saudi Arabia Workbook'!J32</f>
@@ -6751,7 +6754,7 @@
         <f>'Saudi Arabia Workbook'!L32</f>
         <v>2.7405849786256793</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="90" t="s">
         <v>110</v>
       </c>
       <c r="I22" s="20" t="s">
@@ -6857,19 +6860,19 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="7"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="92" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6877,11 +6880,11 @@
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="7">
@@ -7690,140 +7693,140 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="93" t="s">
+      <c r="J28" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="93" t="s">
+      <c r="K28" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="97" t="s">
+      <c r="L28" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="99" t="s">
+      <c r="M28" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="93" t="s">
+      <c r="N28" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="O28" s="93" t="s">
+      <c r="O28" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="97" t="s">
+      <c r="P28" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="99" t="s">
+      <c r="Q28" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="93" t="s">
+      <c r="S28" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="93" t="s">
+      <c r="U28" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="93" t="s">
+      <c r="V28" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="W28" s="93" t="s">
+      <c r="W28" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="X28" s="95" t="s">
+      <c r="X28" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="97" t="s">
+      <c r="Y28" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="Z28" s="99" t="s">
+      <c r="Z28" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="AA28" s="93" t="s">
+      <c r="AA28" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AB28" s="93" t="s">
+      <c r="AB28" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="AC28" s="93" t="s">
+      <c r="AC28" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="AD28" s="93" t="s">
+      <c r="AD28" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="AE28" s="93" t="s">
+      <c r="AE28" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="AF28" s="93" t="s">
+      <c r="AF28" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="AG28" s="95" t="s">
+      <c r="AG28" s="98" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="98"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="96"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="96"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="99"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="49">
@@ -10521,25 +10524,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AF28:AF29"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="Y28:Y29"/>
-    <mergeCell ref="Z28:Z29"/>
-    <mergeCell ref="AA28:AA29"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AC28:AC29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
     <mergeCell ref="U28:U29"/>
     <mergeCell ref="V28:V29"/>
     <mergeCell ref="W28:W29"/>
@@ -10554,6 +10538,25 @@
     <mergeCell ref="Q28:Q29"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="S28:S29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF28:AF29"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="Z28:Z29"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
